--- a/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.76118753197862</v>
+        <v>24.40249099734713</v>
       </c>
       <c r="C2">
-        <v>19.24074239099111</v>
+        <v>13.42355210277942</v>
       </c>
       <c r="D2">
-        <v>6.473820562231166</v>
+        <v>10.21530645666396</v>
       </c>
       <c r="E2">
-        <v>15.83904133795784</v>
+        <v>6.700241323299526</v>
       </c>
       <c r="F2">
-        <v>63.29465991343729</v>
+        <v>63.74875494426435</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.90497593109382</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.345814342746136</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.79778216032414</v>
+        <v>22.5888449184754</v>
       </c>
       <c r="C3">
-        <v>17.77248157332178</v>
+        <v>12.47700286369491</v>
       </c>
       <c r="D3">
-        <v>6.184674531095287</v>
+        <v>9.790613599165509</v>
       </c>
       <c r="E3">
-        <v>14.61917115420381</v>
+        <v>6.644159631353613</v>
       </c>
       <c r="F3">
-        <v>59.14471843791107</v>
+        <v>59.99881714449846</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.84023380909272</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.101024867761778</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54560097663802</v>
+        <v>21.43923032749476</v>
       </c>
       <c r="C4">
-        <v>16.83767761235303</v>
+        <v>11.87398742956734</v>
       </c>
       <c r="D4">
-        <v>6.00766788062101</v>
+        <v>9.528965691489658</v>
       </c>
       <c r="E4">
-        <v>13.84367877706308</v>
+        <v>6.611890743402108</v>
       </c>
       <c r="F4">
-        <v>56.54374531903601</v>
+        <v>57.64857092302809</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.18260534315427</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.954775072853956</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.02300458168509</v>
+        <v>21.01380453350939</v>
       </c>
       <c r="C5">
-        <v>16.44784578510527</v>
+        <v>11.62250765060693</v>
       </c>
       <c r="D5">
-        <v>5.935582571644739</v>
+        <v>9.422085960309637</v>
       </c>
       <c r="E5">
-        <v>13.5205479407985</v>
+        <v>6.599240728075428</v>
       </c>
       <c r="F5">
-        <v>55.47001639816686</v>
+        <v>56.67883112412233</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.94801304744761</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.896196291832013</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.93546781849282</v>
+        <v>20.94279183051143</v>
       </c>
       <c r="C6">
-        <v>16.38256347225708</v>
+        <v>11.58039574949925</v>
       </c>
       <c r="D6">
-        <v>5.923613545319021</v>
+        <v>9.404322644266969</v>
       </c>
       <c r="E6">
-        <v>13.46645071271913</v>
+        <v>6.597169170464134</v>
       </c>
       <c r="F6">
-        <v>55.29088219914989</v>
+        <v>56.51708761714507</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.90890969864932</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.886531078667625</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.5386036765643</v>
+        <v>21.43351785688802</v>
       </c>
       <c r="C7">
-        <v>16.83245684741531</v>
+        <v>11.8706194644985</v>
       </c>
       <c r="D7">
-        <v>6.006695623774819</v>
+        <v>9.527525338840706</v>
       </c>
       <c r="E7">
-        <v>13.83935026932499</v>
+        <v>6.611718172843515</v>
       </c>
       <c r="F7">
-        <v>56.52932097517985</v>
+        <v>57.63554102903461</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.17945154557972</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.953980924682169</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09350063613467</v>
+        <v>23.78547351943011</v>
       </c>
       <c r="C8">
-        <v>18.74105807960747</v>
+        <v>13.10154653956815</v>
       </c>
       <c r="D8">
-        <v>6.37395293162055</v>
+        <v>10.06902815564241</v>
       </c>
       <c r="E8">
-        <v>15.42363625177531</v>
+        <v>6.680426430482932</v>
       </c>
       <c r="F8">
-        <v>61.87431654408774</v>
+        <v>62.46561711474449</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.54246451554592</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.260566589944951</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76577600308669</v>
+        <v>28.10048253386796</v>
       </c>
       <c r="C9">
-        <v>22.24768460074872</v>
+        <v>15.35596670368974</v>
       </c>
       <c r="D9">
-        <v>7.10380015966736</v>
+        <v>11.12688965659656</v>
       </c>
       <c r="E9">
-        <v>18.34451552087932</v>
+        <v>6.834665687690157</v>
       </c>
       <c r="F9">
-        <v>71.98020923010264</v>
+        <v>71.57276510281612</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.08953749229033</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.894685073570046</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04857146566203</v>
+        <v>31.114954712237</v>
       </c>
       <c r="C10">
-        <v>24.72846367344167</v>
+        <v>16.93849129977489</v>
       </c>
       <c r="D10">
-        <v>7.656585900538598</v>
+        <v>11.90852353491588</v>
       </c>
       <c r="E10">
-        <v>20.41931294766764</v>
+        <v>6.963718410336912</v>
       </c>
       <c r="F10">
-        <v>79.33657558629005</v>
+        <v>78.08553589148499</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.89534278987485</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.383280139891419</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.526421858418</v>
+        <v>32.46244631515267</v>
       </c>
       <c r="C11">
-        <v>25.85094482980812</v>
+        <v>17.64915228189274</v>
       </c>
       <c r="D11">
-        <v>7.915249084260618</v>
+        <v>12.26754359215142</v>
       </c>
       <c r="E11">
-        <v>21.36056623887076</v>
+        <v>7.026934288167006</v>
       </c>
       <c r="F11">
-        <v>82.76336657182661</v>
+        <v>81.02705193673883</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.71330759260951</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.611667934897769</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.08573018694007</v>
+        <v>32.97037140209695</v>
       </c>
       <c r="C12">
-        <v>26.27678931571315</v>
+        <v>17.9176549406227</v>
       </c>
       <c r="D12">
-        <v>8.014661198877652</v>
+        <v>12.40428466501378</v>
       </c>
       <c r="E12">
-        <v>21.71808107097086</v>
+        <v>7.05163670083134</v>
       </c>
       <c r="F12">
-        <v>84.06474428916347</v>
+        <v>82.13997509466722</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.02375629022179</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.734217822911811</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.96525104996849</v>
+        <v>32.86106467757031</v>
       </c>
       <c r="C13">
-        <v>26.18500958509264</v>
+        <v>17.85984193493144</v>
       </c>
       <c r="D13">
-        <v>7.993177686878757</v>
+        <v>12.37479439528927</v>
       </c>
       <c r="E13">
-        <v>21.64100786913463</v>
+        <v>7.046280493752401</v>
       </c>
       <c r="F13">
-        <v>83.7842192877178</v>
+        <v>81.90029026368228</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.95684126034038</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.706373265234749</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.57243003636275</v>
+        <v>32.50427339354414</v>
       </c>
       <c r="C14">
-        <v>25.88595238088794</v>
+        <v>17.67124965546115</v>
       </c>
       <c r="D14">
-        <v>7.923395535707815</v>
+        <v>12.27877558848201</v>
       </c>
       <c r="E14">
-        <v>21.38994763637775</v>
+        <v>7.028950504647474</v>
       </c>
       <c r="F14">
-        <v>82.87032716067662</v>
+        <v>81.11861800431946</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.73882612221265</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.618846399486312</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.3318398690181</v>
+        <v>32.2854601573652</v>
       </c>
       <c r="C15">
-        <v>25.70293066486081</v>
+        <v>17.55567624629575</v>
       </c>
       <c r="D15">
-        <v>7.880857363563049</v>
+        <v>12.22007404569603</v>
       </c>
       <c r="E15">
-        <v>21.23635738384493</v>
+        <v>7.018438744955305</v>
       </c>
       <c r="F15">
-        <v>82.31117956717318</v>
+        <v>80.6397677467357</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.60541891761401</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.581350959246141</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.95182976806495</v>
+        <v>31.02650076264935</v>
       </c>
       <c r="C16">
-        <v>24.65511643244939</v>
+        <v>16.89191992505431</v>
       </c>
       <c r="D16">
-        <v>7.639860006478111</v>
+        <v>11.88515321071552</v>
       </c>
       <c r="E16">
-        <v>20.3578629709639</v>
+        <v>6.959687145888611</v>
       </c>
       <c r="F16">
-        <v>79.11288150564974</v>
+        <v>77.89303898081803</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.84191197234277</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.368489552843222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.10246733969678</v>
+        <v>30.24876608177426</v>
       </c>
       <c r="C17">
-        <v>24.01180932355735</v>
+        <v>16.48282435645898</v>
       </c>
       <c r="D17">
-        <v>7.494123531672712</v>
+        <v>11.68075598824968</v>
       </c>
       <c r="E17">
-        <v>19.81918606445982</v>
+        <v>6.924874412146545</v>
       </c>
       <c r="F17">
-        <v>77.15822987293983</v>
+        <v>76.20388231868328</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.37338588312852</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.23956688530491</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.6123370003994</v>
+        <v>29.79911487798109</v>
       </c>
       <c r="C18">
-        <v>23.64110662557761</v>
+        <v>16.24660273086615</v>
       </c>
       <c r="D18">
-        <v>7.410945233972946</v>
+        <v>11.56349505426633</v>
       </c>
       <c r="E18">
-        <v>19.50900350241457</v>
+        <v>6.905267273538104</v>
       </c>
       <c r="F18">
-        <v>76.0663474788342</v>
+        <v>75.23017422558117</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.10348362765137</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.165978347907849</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.4460625782272</v>
+        <v>29.64644345618414</v>
       </c>
       <c r="C19">
-        <v>23.51543141658301</v>
+        <v>16.16644462653571</v>
       </c>
       <c r="D19">
-        <v>7.38288241781488</v>
+        <v>11.52383698936365</v>
       </c>
       <c r="E19">
-        <v>19.40388299887915</v>
+        <v>6.898696998000979</v>
       </c>
       <c r="F19">
-        <v>75.6965993271198</v>
+        <v>74.90007033452896</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.01199595474135</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.141155653884873</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19303678570952</v>
+        <v>30.33179020607494</v>
       </c>
       <c r="C20">
-        <v>24.08035128485515</v>
+        <v>16.5264638591837</v>
       </c>
       <c r="D20">
-        <v>7.509567949852862</v>
+        <v>11.70248122043889</v>
       </c>
       <c r="E20">
-        <v>19.87655610187969</v>
+        <v>6.928536452216036</v>
       </c>
       <c r="F20">
-        <v>77.36115781336829</v>
+        <v>76.38390526551591</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.42329690482573</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.253231574468645</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.68780186308491</v>
+        <v>32.60912523759161</v>
       </c>
       <c r="C21">
-        <v>25.97375583962466</v>
+        <v>17.72665375638053</v>
       </c>
       <c r="D21">
-        <v>7.94384847114696</v>
+        <v>12.30695449574195</v>
       </c>
       <c r="E21">
-        <v>21.4636469986269</v>
+        <v>7.034018958120695</v>
       </c>
       <c r="F21">
-        <v>83.13861674080833</v>
+        <v>81.34822061715423</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.80283198482805</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.642167101049555</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.31772921332831</v>
+        <v>34.08455790423589</v>
       </c>
       <c r="C22">
-        <v>27.21693784616494</v>
+        <v>18.50795995940309</v>
       </c>
       <c r="D22">
-        <v>8.236507202539906</v>
+        <v>12.70680859316678</v>
       </c>
       <c r="E22">
-        <v>22.50823466065715</v>
+        <v>7.107484904296727</v>
       </c>
       <c r="F22">
-        <v>86.93935968044812</v>
+        <v>84.58850682558</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.70938189489491</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.01763174153519</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.44707039007369</v>
+        <v>33.29784560286283</v>
       </c>
       <c r="C23">
-        <v>26.55222120326176</v>
+        <v>18.09096105795747</v>
       </c>
       <c r="D23">
-        <v>8.079321418196434</v>
+        <v>12.49283975905392</v>
       </c>
       <c r="E23">
-        <v>21.94944574072132</v>
+        <v>7.067815064795576</v>
       </c>
       <c r="F23">
-        <v>84.90673370352633</v>
+        <v>82.85863004968517</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.22458797815021</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.817594570426541</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.15209614607598</v>
+        <v>30.29426293058111</v>
       </c>
       <c r="C24">
-        <v>24.04936625104877</v>
+        <v>16.50673769131964</v>
       </c>
       <c r="D24">
-        <v>7.50258366627147</v>
+        <v>11.69265848587997</v>
       </c>
       <c r="E24">
-        <v>19.8506207379127</v>
+        <v>6.926879584031799</v>
       </c>
       <c r="F24">
-        <v>77.26895105508544</v>
+        <v>76.30252510540316</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.40073390111078</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.247052125894099</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.53289434584742</v>
+        <v>26.9633223585985</v>
       </c>
       <c r="C25">
-        <v>21.31993611018418</v>
+        <v>14.76099858419065</v>
       </c>
       <c r="D25">
-        <v>6.904408285633738</v>
+        <v>10.84058430899012</v>
       </c>
       <c r="E25">
-        <v>17.57042542448876</v>
+        <v>6.790494130169317</v>
       </c>
       <c r="F25">
-        <v>69.27849732817259</v>
+        <v>69.14481232489504</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.41498794618956</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.71943417240684</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40249099734713</v>
+        <v>15.58513964287845</v>
       </c>
       <c r="C2">
-        <v>13.42355210277942</v>
+        <v>12.22929931453879</v>
       </c>
       <c r="D2">
-        <v>10.21530645666396</v>
+        <v>4.00079158767883</v>
       </c>
       <c r="E2">
-        <v>6.700241323299526</v>
+        <v>29.49871384537675</v>
       </c>
       <c r="F2">
-        <v>63.74875494426435</v>
+        <v>29.16188381251188</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.1762749233599</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.85594524337078</v>
       </c>
       <c r="L2">
-        <v>7.345814342746136</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.22788532344959</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5888449184754</v>
+        <v>14.48563930944054</v>
       </c>
       <c r="C3">
-        <v>12.47700286369491</v>
+        <v>11.3421050020476</v>
       </c>
       <c r="D3">
-        <v>9.790613599165509</v>
+        <v>4.07891464403465</v>
       </c>
       <c r="E3">
-        <v>6.644159631353613</v>
+        <v>27.3161177628468</v>
       </c>
       <c r="F3">
-        <v>59.99881714449846</v>
+        <v>28.02039244073336</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.8284655752417</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.82476749418838</v>
       </c>
       <c r="L3">
-        <v>7.101024867761778</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.41364104048194</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.43923032749476</v>
+        <v>13.775080409265</v>
       </c>
       <c r="C4">
-        <v>11.87398742956734</v>
+        <v>10.77085960594419</v>
       </c>
       <c r="D4">
-        <v>9.528965691489658</v>
+        <v>4.126449843530722</v>
       </c>
       <c r="E4">
-        <v>6.611890743402108</v>
+        <v>25.91705380415479</v>
       </c>
       <c r="F4">
-        <v>57.64857092302809</v>
+        <v>27.32752386715542</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.6301727473346</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.15921792480044</v>
       </c>
       <c r="L4">
-        <v>6.954775072853956</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.53209523274718</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01380453350939</v>
+        <v>13.47647972721711</v>
       </c>
       <c r="C5">
-        <v>11.62250765060693</v>
+        <v>10.53128708026961</v>
       </c>
       <c r="D5">
-        <v>9.422085960309637</v>
+        <v>4.145748141342702</v>
       </c>
       <c r="E5">
-        <v>6.599240728075428</v>
+        <v>25.33166833648565</v>
       </c>
       <c r="F5">
-        <v>56.67883112412233</v>
+        <v>27.04741682708469</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.55309176363813</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.87973522747905</v>
       </c>
       <c r="L5">
-        <v>6.896196291832013</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.58144847218831</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94279183051143</v>
+        <v>13.42634765856651</v>
       </c>
       <c r="C6">
-        <v>11.58039574949925</v>
+        <v>10.49109308446676</v>
       </c>
       <c r="D6">
-        <v>9.404322644266969</v>
+        <v>4.148949212002007</v>
       </c>
       <c r="E6">
-        <v>6.597169170464134</v>
+        <v>25.23353207670509</v>
       </c>
       <c r="F6">
-        <v>56.51708761714507</v>
+        <v>27.00104802540057</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.54051412918177</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.83282482580945</v>
       </c>
       <c r="L6">
-        <v>6.886531078667625</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.58970828121256</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43351785688802</v>
+        <v>13.77109014814643</v>
       </c>
       <c r="C7">
-        <v>11.8706194644985</v>
+        <v>10.76765627340821</v>
       </c>
       <c r="D7">
-        <v>9.527525338840706</v>
+        <v>4.12671035609677</v>
       </c>
       <c r="E7">
-        <v>6.611718172843515</v>
+        <v>25.90922140990466</v>
       </c>
       <c r="F7">
-        <v>57.63554102903461</v>
+        <v>27.32373683928157</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.62911827584887</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.15548234114161</v>
       </c>
       <c r="L7">
-        <v>6.953980924682169</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.53275647460573</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78547351943011</v>
+        <v>15.21331424702852</v>
       </c>
       <c r="C8">
-        <v>13.10154653956815</v>
+        <v>11.92881990336326</v>
       </c>
       <c r="D8">
-        <v>10.06902815564241</v>
+        <v>4.027841062286948</v>
       </c>
       <c r="E8">
-        <v>6.680426430482932</v>
+        <v>28.75811510053844</v>
       </c>
       <c r="F8">
-        <v>62.46561711474449</v>
+        <v>28.76675958856066</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.05311483887826</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.50704618309015</v>
       </c>
       <c r="L8">
-        <v>7.260566589944951</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.29100487631089</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.10048253386796</v>
+        <v>17.76620757259012</v>
       </c>
       <c r="C9">
-        <v>15.35596670368974</v>
+        <v>14.001570664004</v>
       </c>
       <c r="D9">
-        <v>11.12688965659656</v>
+        <v>3.82869235225328</v>
       </c>
       <c r="E9">
-        <v>6.834665687690157</v>
+        <v>33.89881079771529</v>
       </c>
       <c r="F9">
-        <v>71.57276510281612</v>
+        <v>31.65242253994334</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>20.01076388199235</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.9062188940018</v>
       </c>
       <c r="L9">
-        <v>7.894685073570046</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.8531868390766</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.114954712237</v>
+        <v>19.48317583036901</v>
       </c>
       <c r="C10">
-        <v>16.93849129977489</v>
+        <v>15.40922648363891</v>
       </c>
       <c r="D10">
-        <v>11.90852353491588</v>
+        <v>3.676245135306876</v>
       </c>
       <c r="E10">
-        <v>6.963718410336912</v>
+        <v>37.43788710325538</v>
       </c>
       <c r="F10">
-        <v>78.08553589148499</v>
+        <v>33.80059200444351</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.79867108182172</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.52477405221453</v>
       </c>
       <c r="L10">
-        <v>8.383280139891419</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.55600075044149</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.46244631515267</v>
+        <v>20.23210460193013</v>
       </c>
       <c r="C11">
-        <v>17.64915228189274</v>
+        <v>16.02698161544479</v>
       </c>
       <c r="D11">
-        <v>12.26754359215142</v>
+        <v>3.60478561203468</v>
       </c>
       <c r="E11">
-        <v>7.026934288167006</v>
+        <v>39.00518939966165</v>
       </c>
       <c r="F11">
-        <v>81.02705193673883</v>
+        <v>34.7840777998788</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>21.17724184326197</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.23209331402815</v>
       </c>
       <c r="L11">
-        <v>8.611667934897769</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.42683033501984</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.97037140209695</v>
+        <v>20.51129796176441</v>
       </c>
       <c r="C12">
-        <v>17.9176549406227</v>
+        <v>16.25788881645198</v>
       </c>
       <c r="D12">
-        <v>12.40428466501378</v>
+        <v>3.577345459806065</v>
       </c>
       <c r="E12">
-        <v>7.05163670083134</v>
+        <v>39.59342978477298</v>
       </c>
       <c r="F12">
-        <v>82.13997509466722</v>
+        <v>35.15751559835347</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>21.32366986811281</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.49598777023139</v>
       </c>
       <c r="L12">
-        <v>8.734217822911811</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.37885992413941</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.86106467757031</v>
+        <v>20.45136117777579</v>
       </c>
       <c r="C13">
-        <v>17.85984193493144</v>
+        <v>16.20828935651618</v>
       </c>
       <c r="D13">
-        <v>12.37479439528927</v>
+        <v>3.583273435852324</v>
       </c>
       <c r="E13">
-        <v>7.046280493752401</v>
+        <v>39.46696047340086</v>
       </c>
       <c r="F13">
-        <v>81.90029026368228</v>
+        <v>35.07704127547272</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>21.2919942747162</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.43932544461581</v>
       </c>
       <c r="L13">
-        <v>8.706373265234749</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.38914782626925</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.50427339354414</v>
+        <v>20.25516108999804</v>
       </c>
       <c r="C14">
-        <v>17.67124965546115</v>
+        <v>16.04603767876464</v>
       </c>
       <c r="D14">
-        <v>12.27877558848201</v>
+        <v>3.602536190899592</v>
       </c>
       <c r="E14">
-        <v>7.028950504647474</v>
+        <v>39.05368430993816</v>
       </c>
       <c r="F14">
-        <v>81.11861800431946</v>
+        <v>34.81477948513296</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.18922590470487</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.2538819516273</v>
       </c>
       <c r="L14">
-        <v>8.618846399486312</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.42286436446082</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.2854601573652</v>
+        <v>20.13441526725573</v>
       </c>
       <c r="C15">
-        <v>17.55567624629575</v>
+        <v>15.94626734015741</v>
       </c>
       <c r="D15">
-        <v>12.22007404569603</v>
+        <v>3.614283224406496</v>
       </c>
       <c r="E15">
-        <v>7.018438744955305</v>
+        <v>38.79988340461437</v>
       </c>
       <c r="F15">
-        <v>80.6397677467357</v>
+        <v>34.65427335722004</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>21.12668297797132</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.13978459947867</v>
       </c>
       <c r="L15">
-        <v>8.581350959246141</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.44364219354905</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.02650076264935</v>
+        <v>19.43360248847542</v>
       </c>
       <c r="C16">
-        <v>16.89191992505431</v>
+        <v>15.36841870648306</v>
       </c>
       <c r="D16">
-        <v>11.88515321071552</v>
+        <v>3.680866441660665</v>
       </c>
       <c r="E16">
-        <v>6.959687145888611</v>
+        <v>37.3346734620979</v>
       </c>
       <c r="F16">
-        <v>77.89303898081803</v>
+        <v>33.73645255842332</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.77435027843033</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.4779838060647</v>
       </c>
       <c r="L16">
-        <v>8.368489552843222</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.56456978759639</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.24876608177426</v>
+        <v>18.99558975626972</v>
       </c>
       <c r="C17">
-        <v>16.48282435645898</v>
+        <v>15.00829187039398</v>
       </c>
       <c r="D17">
-        <v>11.68075598824968</v>
+        <v>3.721121716512681</v>
       </c>
       <c r="E17">
-        <v>6.924874412146545</v>
+        <v>36.42547120653673</v>
       </c>
       <c r="F17">
-        <v>76.20388231868328</v>
+        <v>33.17505673047564</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.56348139236548</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.06471459108838</v>
       </c>
       <c r="L17">
-        <v>8.23956688530491</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.64034751959429</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.79911487798109</v>
+        <v>18.74061839003565</v>
       </c>
       <c r="C18">
-        <v>16.24660273086615</v>
+        <v>14.79901460751843</v>
       </c>
       <c r="D18">
-        <v>11.56349505426633</v>
+        <v>3.744082049067462</v>
       </c>
       <c r="E18">
-        <v>6.905267273538104</v>
+        <v>35.89844948495872</v>
       </c>
       <c r="F18">
-        <v>75.23017422558117</v>
+        <v>32.85273522109253</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.44407974938644</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.82427206508826</v>
       </c>
       <c r="L18">
-        <v>8.165978347907849</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.68449406385529</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.64644345618414</v>
+        <v>18.65376166467607</v>
       </c>
       <c r="C19">
-        <v>16.16644462653571</v>
+        <v>14.72778265203894</v>
       </c>
       <c r="D19">
-        <v>11.52383698936365</v>
+        <v>3.751824943292085</v>
       </c>
       <c r="E19">
-        <v>6.898696998000979</v>
+        <v>35.71928512262755</v>
       </c>
       <c r="F19">
-        <v>74.90007033452896</v>
+        <v>32.74370013232348</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.40397121574295</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.74238549783335</v>
       </c>
       <c r="L19">
-        <v>8.141155653884873</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.69953559665208</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.33179020607494</v>
+        <v>19.04252993761164</v>
       </c>
       <c r="C20">
-        <v>16.5264638591837</v>
+        <v>15.04684811619174</v>
       </c>
       <c r="D20">
-        <v>11.70248122043889</v>
+        <v>3.716857010573583</v>
       </c>
       <c r="E20">
-        <v>6.928536452216036</v>
+        <v>36.52267296244972</v>
       </c>
       <c r="F20">
-        <v>76.38390526551591</v>
+        <v>33.23475788224527</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.58573252724621</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.10899002358719</v>
       </c>
       <c r="L20">
-        <v>8.253231574468645</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.63222225609897</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60912523759161</v>
+        <v>20.3129076881033</v>
       </c>
       <c r="C21">
-        <v>17.72665375638053</v>
+        <v>16.09377502932105</v>
       </c>
       <c r="D21">
-        <v>12.30695449574195</v>
+        <v>3.596889235197877</v>
       </c>
       <c r="E21">
-        <v>7.034018958120695</v>
+        <v>39.17520877703953</v>
       </c>
       <c r="F21">
-        <v>81.34822061715423</v>
+        <v>34.89178329388147</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>21.21932657170664</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.30845661702481</v>
       </c>
       <c r="L21">
-        <v>8.642167101049555</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.41293468828223</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.08455790423589</v>
+        <v>21.11758658112234</v>
       </c>
       <c r="C22">
-        <v>18.50795995940309</v>
+        <v>16.76050824036257</v>
       </c>
       <c r="D22">
-        <v>12.70680859316678</v>
+        <v>3.516223831601098</v>
       </c>
       <c r="E22">
-        <v>7.107484904296727</v>
+        <v>40.87862396384262</v>
       </c>
       <c r="F22">
-        <v>84.58850682558</v>
+        <v>35.98076962439162</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.65142372896579</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.06946203164938</v>
       </c>
       <c r="L22">
-        <v>9.01763174153519</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.27516633000265</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.29784560286283</v>
+        <v>20.69037913208694</v>
       </c>
       <c r="C23">
-        <v>18.09096105795747</v>
+        <v>16.40617805194143</v>
       </c>
       <c r="D23">
-        <v>12.49283975905392</v>
+        <v>3.559511779026263</v>
       </c>
       <c r="E23">
-        <v>7.067815064795576</v>
+        <v>39.97191600419297</v>
       </c>
       <c r="F23">
-        <v>82.85863004968517</v>
+        <v>35.39894472432329</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>21.41909203965356</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.66531784138087</v>
       </c>
       <c r="L23">
-        <v>8.817594570426541</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.34815802100141</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.29426293058111</v>
+        <v>19.02131811499</v>
       </c>
       <c r="C24">
-        <v>16.50673769131964</v>
+        <v>15.02942381733942</v>
       </c>
       <c r="D24">
-        <v>11.69265848587997</v>
+        <v>3.718785648414407</v>
       </c>
       <c r="E24">
-        <v>6.926879584031799</v>
+        <v>36.47874153448921</v>
       </c>
       <c r="F24">
-        <v>76.30252510540316</v>
+        <v>33.20776565178363</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.57566710287496</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.08898198892613</v>
       </c>
       <c r="L24">
-        <v>8.247052125894099</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.63589388398994</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.9633223585985</v>
+        <v>17.10415527661938</v>
       </c>
       <c r="C25">
-        <v>14.76099858419065</v>
+        <v>13.4618030404838</v>
       </c>
       <c r="D25">
-        <v>10.84058430899012</v>
+        <v>3.883409671370942</v>
       </c>
       <c r="E25">
-        <v>6.790494130169317</v>
+        <v>32.55259022356445</v>
       </c>
       <c r="F25">
-        <v>69.14481232489504</v>
+        <v>30.86663985493086</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.73744877480812</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.28319766765167</v>
       </c>
       <c r="L25">
-        <v>7.71943417240684</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.96753305913033</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.58513964287845</v>
+        <v>11.63507054624237</v>
       </c>
       <c r="C2">
-        <v>12.22929931453879</v>
+        <v>7.930538139316975</v>
       </c>
       <c r="D2">
-        <v>4.00079158767883</v>
+        <v>5.896791424070731</v>
       </c>
       <c r="E2">
-        <v>29.49871384537675</v>
+        <v>16.35060966286245</v>
       </c>
       <c r="F2">
-        <v>29.16188381251188</v>
+        <v>31.76627013736663</v>
       </c>
       <c r="I2">
-        <v>19.1762749233599</v>
+        <v>24.76664481412141</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.85594524337078</v>
+        <v>12.11681565905014</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.22788532344959</v>
+        <v>19.76764990754434</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.48563930944054</v>
+        <v>11.32922955996964</v>
       </c>
       <c r="C3">
-        <v>11.3421050020476</v>
+        <v>7.622261269460787</v>
       </c>
       <c r="D3">
-        <v>4.07891464403465</v>
+        <v>5.908790502108642</v>
       </c>
       <c r="E3">
-        <v>27.3161177628468</v>
+        <v>15.4310494358278</v>
       </c>
       <c r="F3">
-        <v>28.02039244073336</v>
+        <v>31.5921783426326</v>
       </c>
       <c r="I3">
-        <v>18.8284655752417</v>
+        <v>24.76072662657355</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.82476749418838</v>
+        <v>11.89048108504712</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.41364104048194</v>
+        <v>19.82133918496889</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.775080409265</v>
+        <v>11.14079757440249</v>
       </c>
       <c r="C4">
-        <v>10.77085960594419</v>
+        <v>7.429163852767203</v>
       </c>
       <c r="D4">
-        <v>4.126449843530722</v>
+        <v>5.916309098691178</v>
       </c>
       <c r="E4">
-        <v>25.91705380415479</v>
+        <v>14.84289575365247</v>
       </c>
       <c r="F4">
-        <v>27.32752386715542</v>
+        <v>31.49368683623414</v>
       </c>
       <c r="I4">
-        <v>18.6301727473346</v>
+        <v>24.76249397089074</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.15921792480044</v>
+        <v>11.75299025392141</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.53209523274718</v>
+        <v>19.85620113457738</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.47647972721711</v>
+        <v>11.0639782084984</v>
       </c>
       <c r="C5">
-        <v>10.53128708026961</v>
+        <v>7.349654403406963</v>
       </c>
       <c r="D5">
-        <v>4.145748141342702</v>
+        <v>5.919411473705845</v>
       </c>
       <c r="E5">
-        <v>25.33166833648565</v>
+        <v>14.59757357288768</v>
       </c>
       <c r="F5">
-        <v>27.04741682708469</v>
+        <v>31.45569032339747</v>
       </c>
       <c r="I5">
-        <v>18.55309176363813</v>
+        <v>24.76456984480222</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.87973522747905</v>
+        <v>11.69741583384373</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.58144847218831</v>
+        <v>19.87088472241143</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.42634765856651</v>
+        <v>11.05122439681542</v>
       </c>
       <c r="C6">
-        <v>10.49109308446676</v>
+        <v>7.336406663744019</v>
       </c>
       <c r="D6">
-        <v>4.148949212002007</v>
+        <v>5.919928959359617</v>
       </c>
       <c r="E6">
-        <v>25.23353207670509</v>
+        <v>14.55650614715822</v>
       </c>
       <c r="F6">
-        <v>27.00104802540057</v>
+        <v>31.4495109729811</v>
       </c>
       <c r="I6">
-        <v>18.54051412918177</v>
+        <v>24.76499633333522</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.83282482580945</v>
+        <v>11.68821758029492</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.58970828121256</v>
+        <v>19.87335173953777</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.77109014814643</v>
+        <v>11.13976151449114</v>
       </c>
       <c r="C7">
-        <v>10.76765627340821</v>
+        <v>7.428094690559357</v>
       </c>
       <c r="D7">
-        <v>4.12671035609677</v>
+        <v>5.916350781975273</v>
       </c>
       <c r="E7">
-        <v>25.90922140990466</v>
+        <v>14.83960970666786</v>
       </c>
       <c r="F7">
-        <v>27.32373683928157</v>
+        <v>31.49316570618995</v>
       </c>
       <c r="I7">
-        <v>18.62911827584887</v>
+        <v>24.76251648180608</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.15548234114161</v>
+        <v>11.75223881016106</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.53275647460573</v>
+        <v>19.85639723081888</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.21331424702852</v>
+        <v>11.52982676912375</v>
       </c>
       <c r="C8">
-        <v>11.92881990336326</v>
+        <v>7.825114753154973</v>
       </c>
       <c r="D8">
-        <v>4.027841062286948</v>
+        <v>5.900897637999736</v>
       </c>
       <c r="E8">
-        <v>28.75811510053844</v>
+        <v>16.03858008405622</v>
       </c>
       <c r="F8">
-        <v>28.76675958856066</v>
+        <v>31.704516777151</v>
       </c>
       <c r="I8">
-        <v>19.05311483887826</v>
+        <v>24.76348193371857</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.50704618309015</v>
+        <v>12.03851762694498</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.29100487631089</v>
+        <v>19.78576844610441</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.76620757259012</v>
+        <v>12.2842034851214</v>
       </c>
       <c r="C9">
-        <v>14.001570664004</v>
+        <v>8.568011937093614</v>
       </c>
       <c r="D9">
-        <v>3.82869235225328</v>
+        <v>5.871770276236965</v>
       </c>
       <c r="E9">
-        <v>33.89881079771529</v>
+        <v>18.23143819052419</v>
       </c>
       <c r="F9">
-        <v>31.65242253994334</v>
+        <v>32.18429079094873</v>
       </c>
       <c r="I9">
-        <v>20.01076388199235</v>
+        <v>24.80831289210489</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.9062188940018</v>
+        <v>12.60806915742565</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.8531868390766</v>
+        <v>19.66230567844642</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.48317583036901</v>
+        <v>12.82523132443722</v>
       </c>
       <c r="C10">
-        <v>15.40922648363891</v>
+        <v>9.085787506507932</v>
       </c>
       <c r="D10">
-        <v>3.676245135306876</v>
+        <v>5.851054636582234</v>
       </c>
       <c r="E10">
-        <v>37.43788710325538</v>
+        <v>19.85965522486206</v>
       </c>
       <c r="F10">
-        <v>33.80059200444351</v>
+        <v>32.57457172557507</v>
       </c>
       <c r="I10">
-        <v>20.79867108182172</v>
+        <v>24.86749567343281</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.52477405221453</v>
+        <v>13.02680132400796</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.55600075044149</v>
+        <v>19.58075486323613</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.23210460193013</v>
+        <v>13.06720586320511</v>
       </c>
       <c r="C11">
-        <v>16.02698161544479</v>
+        <v>9.314169961490361</v>
       </c>
       <c r="D11">
-        <v>3.60478561203468</v>
+        <v>5.841771971579222</v>
       </c>
       <c r="E11">
-        <v>39.00518939966165</v>
+        <v>20.55897514653831</v>
       </c>
       <c r="F11">
-        <v>34.7840777998788</v>
+        <v>32.75983199007965</v>
       </c>
       <c r="I11">
-        <v>21.17724184326197</v>
+        <v>24.90011683907998</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.23209331402815</v>
+        <v>13.21640717235771</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.42683033501984</v>
+        <v>19.5456417708721</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.51129796176441</v>
+        <v>13.15814373377796</v>
       </c>
       <c r="C12">
-        <v>16.25788881645198</v>
+        <v>9.399548520056458</v>
       </c>
       <c r="D12">
-        <v>3.577345459806065</v>
+        <v>5.838276587964337</v>
       </c>
       <c r="E12">
-        <v>39.59342978477298</v>
+        <v>20.81787895845543</v>
       </c>
       <c r="F12">
-        <v>35.15751559835347</v>
+        <v>32.83104958979806</v>
       </c>
       <c r="I12">
-        <v>21.32366986811281</v>
+        <v>24.91328740250841</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.49598777023139</v>
+        <v>13.28800505306839</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.37885992413941</v>
+        <v>19.53263075300237</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.45136117777579</v>
+        <v>13.13859089982853</v>
       </c>
       <c r="C13">
-        <v>16.20828935651618</v>
+        <v>9.381210961838553</v>
       </c>
       <c r="D13">
-        <v>3.583273435852324</v>
+        <v>5.839028510723496</v>
       </c>
       <c r="E13">
-        <v>39.46696047340086</v>
+        <v>20.76238184345391</v>
       </c>
       <c r="F13">
-        <v>35.07704127547272</v>
+        <v>32.81566506756843</v>
       </c>
       <c r="I13">
-        <v>21.2919942747162</v>
+        <v>24.91041455932957</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.43932544461581</v>
+        <v>13.27259530404959</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.38914782626925</v>
+        <v>19.53542020608932</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.25516108999804</v>
+        <v>13.07470178484429</v>
       </c>
       <c r="C14">
-        <v>16.04603767876464</v>
+        <v>9.321216649589473</v>
       </c>
       <c r="D14">
-        <v>3.602536190899592</v>
+        <v>5.841484011196473</v>
       </c>
       <c r="E14">
-        <v>39.05368430993816</v>
+        <v>20.58039363580254</v>
       </c>
       <c r="F14">
-        <v>34.81477948513296</v>
+        <v>32.76567006392588</v>
       </c>
       <c r="I14">
-        <v>21.18922590470487</v>
+        <v>24.90118401603769</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.2538819516273</v>
+        <v>13.22230203576053</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.42286436446082</v>
+        <v>19.54456562288526</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.13441526725573</v>
+        <v>13.03547491474057</v>
       </c>
       <c r="C15">
-        <v>15.94626734015741</v>
+        <v>9.284322430181147</v>
       </c>
       <c r="D15">
-        <v>3.614283224406496</v>
+        <v>5.842990634199595</v>
       </c>
       <c r="E15">
-        <v>38.79988340461437</v>
+        <v>20.4681515212462</v>
       </c>
       <c r="F15">
-        <v>34.65427335722004</v>
+        <v>32.73518376861094</v>
       </c>
       <c r="I15">
-        <v>21.12668297797132</v>
+        <v>24.89563645370028</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.13978459947867</v>
+        <v>13.19146750542517</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.44364219354905</v>
+        <v>19.55020464620204</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.43360248847542</v>
+        <v>12.80932589292058</v>
       </c>
       <c r="C16">
-        <v>15.36841870648306</v>
+        <v>9.070711453911429</v>
       </c>
       <c r="D16">
-        <v>3.680866441660665</v>
+        <v>5.851664073733452</v>
       </c>
       <c r="E16">
-        <v>37.3346734620979</v>
+        <v>19.81312363710416</v>
       </c>
       <c r="F16">
-        <v>33.73645255842332</v>
+        <v>32.56261594584329</v>
       </c>
       <c r="I16">
-        <v>20.77435027843033</v>
+        <v>24.86547833813981</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.4779838060647</v>
+        <v>13.01438593577018</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.56456978759639</v>
+        <v>19.58308953642506</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.99558975626972</v>
+        <v>12.66945833421396</v>
       </c>
       <c r="C17">
-        <v>15.00829187039398</v>
+        <v>8.937777874002743</v>
       </c>
       <c r="D17">
-        <v>3.721121716512681</v>
+        <v>5.857020693160667</v>
       </c>
       <c r="E17">
-        <v>36.42547120653673</v>
+        <v>19.40071560867555</v>
       </c>
       <c r="F17">
-        <v>33.17505673047564</v>
+        <v>32.45869598927793</v>
       </c>
       <c r="I17">
-        <v>20.56348139236548</v>
+        <v>24.84843583829751</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.06471459108838</v>
+        <v>12.90547246716317</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.64034751959429</v>
+        <v>19.60377179033018</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.74061839003565</v>
+        <v>12.58862565573061</v>
       </c>
       <c r="C18">
-        <v>14.79901460751843</v>
+        <v>8.860648260627354</v>
       </c>
       <c r="D18">
-        <v>3.744082049067462</v>
+        <v>5.860114979893014</v>
       </c>
       <c r="E18">
-        <v>35.89844948495872</v>
+        <v>19.15961396647398</v>
       </c>
       <c r="F18">
-        <v>32.85273522109253</v>
+        <v>32.39965351607953</v>
       </c>
       <c r="I18">
-        <v>20.44407974938644</v>
+        <v>24.83916998708557</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.82427206508826</v>
+        <v>12.8427500235165</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.68449406385529</v>
+        <v>19.61585448263216</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.65376166467607</v>
+        <v>12.56119414316188</v>
       </c>
       <c r="C19">
-        <v>14.72778265203894</v>
+        <v>8.834420952439938</v>
       </c>
       <c r="D19">
-        <v>3.751824943292085</v>
+        <v>5.861164952218847</v>
       </c>
       <c r="E19">
-        <v>35.71928512262755</v>
+        <v>19.07731098687165</v>
       </c>
       <c r="F19">
-        <v>32.74370013232348</v>
+        <v>32.37978942634491</v>
       </c>
       <c r="I19">
-        <v>20.40397121574295</v>
+        <v>24.83612492252385</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.74238549783335</v>
+        <v>12.82150219608573</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.69953559665208</v>
+        <v>19.61997755514871</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.04252993761164</v>
+        <v>12.68438800407222</v>
       </c>
       <c r="C20">
-        <v>15.04684811619174</v>
+        <v>8.951998777527038</v>
       </c>
       <c r="D20">
-        <v>3.716857010573583</v>
+        <v>5.856449099054441</v>
       </c>
       <c r="E20">
-        <v>36.52267296244972</v>
+        <v>19.44502005921335</v>
       </c>
       <c r="F20">
-        <v>33.23475788224527</v>
+        <v>32.4696832715827</v>
       </c>
       <c r="I20">
-        <v>20.58573252724621</v>
+        <v>24.8501945220003</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.10899002358719</v>
+        <v>12.9170751543624</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.63222225609897</v>
+        <v>19.60155079453316</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.3129076881033</v>
+        <v>13.09348709746862</v>
       </c>
       <c r="C21">
-        <v>16.09377502932105</v>
+        <v>9.338868974866127</v>
       </c>
       <c r="D21">
-        <v>3.596889235197877</v>
+        <v>5.840762239004252</v>
       </c>
       <c r="E21">
-        <v>39.17520877703953</v>
+        <v>20.63400819840498</v>
       </c>
       <c r="F21">
-        <v>34.89178329388147</v>
+        <v>32.7803263254451</v>
       </c>
       <c r="I21">
-        <v>21.21932657170664</v>
+        <v>24.90387307861338</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.30845661702481</v>
+        <v>13.23708044656714</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.41293468828223</v>
+        <v>19.54187164131739</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.11758658112234</v>
+        <v>13.35678052385554</v>
       </c>
       <c r="C22">
-        <v>16.76050824036257</v>
+        <v>9.585242468286841</v>
       </c>
       <c r="D22">
-        <v>3.516223831601098</v>
+        <v>5.830624905838215</v>
       </c>
       <c r="E22">
-        <v>40.87862396384262</v>
+        <v>21.37662842324275</v>
       </c>
       <c r="F22">
-        <v>35.98076962439162</v>
+        <v>32.98952565968997</v>
       </c>
       <c r="I22">
-        <v>21.65142372896579</v>
+        <v>24.94371948928115</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.06946203164938</v>
+        <v>13.44501415903945</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.27516633000265</v>
+        <v>19.50453234551667</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.69037913208694</v>
+        <v>13.21665882075076</v>
       </c>
       <c r="C23">
-        <v>16.40617805194143</v>
+        <v>9.454362652382173</v>
       </c>
       <c r="D23">
-        <v>3.559511779026263</v>
+        <v>5.83602504504814</v>
       </c>
       <c r="E23">
-        <v>39.97191600419297</v>
+        <v>20.98341901854121</v>
       </c>
       <c r="F23">
-        <v>35.39894472432329</v>
+        <v>32.87732284845578</v>
       </c>
       <c r="I23">
-        <v>21.41909203965356</v>
+        <v>24.92201758795346</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.66531784138087</v>
+        <v>13.33417056200223</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.34815802100141</v>
+        <v>19.52430867593997</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.02131811499</v>
+        <v>12.67763960402965</v>
       </c>
       <c r="C24">
-        <v>15.02942381733942</v>
+        <v>8.945571695017831</v>
       </c>
       <c r="D24">
-        <v>3.718785648414407</v>
+        <v>5.856707470905611</v>
       </c>
       <c r="E24">
-        <v>36.47874153448921</v>
+        <v>19.42500248796413</v>
       </c>
       <c r="F24">
-        <v>33.20776565178363</v>
+        <v>32.46471372947023</v>
       </c>
       <c r="I24">
-        <v>20.57566710287496</v>
+        <v>24.84939776343452</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.08898198892613</v>
+        <v>12.91182990582768</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63589388398994</v>
+        <v>19.60255430804283</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10415527661938</v>
+        <v>12.08198253152991</v>
       </c>
       <c r="C25">
-        <v>13.4618030404838</v>
+        <v>8.371555263831089</v>
       </c>
       <c r="D25">
-        <v>3.883409671370942</v>
+        <v>5.879527460027903</v>
       </c>
       <c r="E25">
-        <v>32.55259022356445</v>
+        <v>17.63262602567066</v>
       </c>
       <c r="F25">
-        <v>30.86663985493086</v>
+        <v>32.04770359443615</v>
       </c>
       <c r="I25">
-        <v>19.73744877480812</v>
+        <v>24.79157776242118</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.28319766765167</v>
+        <v>12.45360935518264</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.96753305913033</v>
+        <v>19.6940967928718</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63507054624237</v>
+        <v>15.58513964287845</v>
       </c>
       <c r="C2">
-        <v>7.930538139316975</v>
+        <v>12.22929931453877</v>
       </c>
       <c r="D2">
-        <v>5.896791424070731</v>
+        <v>4.000791587678965</v>
       </c>
       <c r="E2">
-        <v>16.35060966286245</v>
+        <v>29.4987138453767</v>
       </c>
       <c r="F2">
-        <v>31.76627013736663</v>
+        <v>29.16188381251196</v>
       </c>
       <c r="I2">
-        <v>24.76664481412141</v>
+        <v>19.17627492336003</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.11681565905014</v>
+        <v>14.85594524337079</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.76764990754434</v>
+        <v>13.22788532344966</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.32922955996964</v>
+        <v>14.48563930944052</v>
       </c>
       <c r="C3">
-        <v>7.622261269460787</v>
+        <v>11.34210500204752</v>
       </c>
       <c r="D3">
-        <v>5.908790502108642</v>
+        <v>4.078914644034785</v>
       </c>
       <c r="E3">
-        <v>15.4310494358278</v>
+        <v>27.31611776284681</v>
       </c>
       <c r="F3">
-        <v>31.5921783426326</v>
+        <v>28.02039244073348</v>
       </c>
       <c r="I3">
-        <v>24.76072662657355</v>
+        <v>18.82846557524184</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.89048108504712</v>
+        <v>13.82476749418833</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.82133918496889</v>
+        <v>13.41364104048204</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.14079757440249</v>
+        <v>13.77508040926494</v>
       </c>
       <c r="C4">
-        <v>7.429163852767203</v>
+        <v>10.77085960594431</v>
       </c>
       <c r="D4">
-        <v>5.916309098691178</v>
+        <v>4.126449843530519</v>
       </c>
       <c r="E4">
-        <v>14.84289575365247</v>
+        <v>25.91705380415483</v>
       </c>
       <c r="F4">
-        <v>31.49368683623414</v>
+        <v>27.3275238671555</v>
       </c>
       <c r="I4">
-        <v>24.76249397089074</v>
+        <v>18.63017274733465</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.75299025392141</v>
+        <v>13.15921792480044</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.85620113457738</v>
+        <v>13.53209523274718</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.0639782084984</v>
+        <v>13.47647972721718</v>
       </c>
       <c r="C5">
-        <v>7.349654403406963</v>
+        <v>10.53128708026953</v>
       </c>
       <c r="D5">
-        <v>5.919411473705845</v>
+        <v>4.145748141342903</v>
       </c>
       <c r="E5">
-        <v>14.59757357288768</v>
+        <v>25.33166833648558</v>
       </c>
       <c r="F5">
-        <v>31.45569032339747</v>
+        <v>27.04741682708458</v>
       </c>
       <c r="I5">
-        <v>24.76456984480222</v>
+        <v>18.55309176363802</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.69741583384373</v>
+        <v>12.87973522747907</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.87088472241143</v>
+        <v>13.58144847218828</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05122439681542</v>
+        <v>13.42634765856655</v>
       </c>
       <c r="C6">
-        <v>7.336406663744019</v>
+        <v>10.49109308446671</v>
       </c>
       <c r="D6">
-        <v>5.919928959359617</v>
+        <v>4.148949212002075</v>
       </c>
       <c r="E6">
-        <v>14.55650614715822</v>
+        <v>25.23353207670507</v>
       </c>
       <c r="F6">
-        <v>31.4495109729811</v>
+        <v>27.00104802540057</v>
       </c>
       <c r="I6">
-        <v>24.76499633333522</v>
+        <v>18.54051412918173</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.68821758029492</v>
+        <v>12.83282482580944</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.87335173953777</v>
+        <v>13.58970828121253</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.13976151449114</v>
+        <v>13.77109014814639</v>
       </c>
       <c r="C7">
-        <v>7.428094690559357</v>
+        <v>10.76765627340835</v>
       </c>
       <c r="D7">
-        <v>5.916350781975273</v>
+        <v>4.126710356096436</v>
       </c>
       <c r="E7">
-        <v>14.83960970666786</v>
+        <v>25.90922140990462</v>
       </c>
       <c r="F7">
-        <v>31.49316570618995</v>
+        <v>27.32373683928162</v>
       </c>
       <c r="I7">
-        <v>24.76251648180608</v>
+        <v>18.62911827584887</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.75223881016106</v>
+        <v>13.15548234114164</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.85639723081888</v>
+        <v>13.53275647460569</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52982676912375</v>
+        <v>15.21331424702858</v>
       </c>
       <c r="C8">
-        <v>7.825114753154973</v>
+        <v>11.92881990336317</v>
       </c>
       <c r="D8">
-        <v>5.900897637999736</v>
+        <v>4.02784106228688</v>
       </c>
       <c r="E8">
-        <v>16.03858008405622</v>
+        <v>28.75811510053851</v>
       </c>
       <c r="F8">
-        <v>31.704516777151</v>
+        <v>28.76675958856072</v>
       </c>
       <c r="I8">
-        <v>24.76348193371857</v>
+        <v>19.05311483887826</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.03851762694498</v>
+        <v>14.50704618309018</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.78576844610441</v>
+        <v>13.29100487631082</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.2842034851214</v>
+        <v>17.76620757259019</v>
       </c>
       <c r="C9">
-        <v>8.568011937093614</v>
+        <v>14.00157066400413</v>
       </c>
       <c r="D9">
-        <v>5.871770276236965</v>
+        <v>3.828692352252944</v>
       </c>
       <c r="E9">
-        <v>18.23143819052419</v>
+        <v>33.89881079771523</v>
       </c>
       <c r="F9">
-        <v>32.18429079094873</v>
+        <v>31.65242253994338</v>
       </c>
       <c r="I9">
-        <v>24.80831289210489</v>
+        <v>20.01076388199231</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.60806915742565</v>
+        <v>16.9062188940019</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.66230567844642</v>
+        <v>12.85318683907656</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.82523132443722</v>
+        <v>19.48317583036907</v>
       </c>
       <c r="C10">
-        <v>9.085787506507932</v>
+        <v>15.40922648363886</v>
       </c>
       <c r="D10">
-        <v>5.851054636582234</v>
+        <v>3.676245135307076</v>
       </c>
       <c r="E10">
-        <v>19.85965522486206</v>
+        <v>37.43788710325541</v>
       </c>
       <c r="F10">
-        <v>32.57457172557507</v>
+        <v>33.80059200444353</v>
       </c>
       <c r="I10">
-        <v>24.86749567343281</v>
+        <v>20.7986710818217</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02680132400796</v>
+        <v>18.52477405221454</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.58075486323613</v>
+        <v>12.55600075044141</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.06720586320511</v>
+        <v>20.23210460193009</v>
       </c>
       <c r="C11">
-        <v>9.314169961490361</v>
+        <v>16.02698161544494</v>
       </c>
       <c r="D11">
-        <v>5.841771971579222</v>
+        <v>3.604785612034747</v>
       </c>
       <c r="E11">
-        <v>20.55897514653831</v>
+        <v>39.0051893996617</v>
       </c>
       <c r="F11">
-        <v>32.75983199007965</v>
+        <v>34.78407779987884</v>
       </c>
       <c r="I11">
-        <v>24.90011683907998</v>
+        <v>21.17724184326204</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.21640717235771</v>
+        <v>19.23209331402817</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.5456417708721</v>
+        <v>12.42683033501988</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.15814373377796</v>
+        <v>20.51129796176447</v>
       </c>
       <c r="C12">
-        <v>9.399548520056458</v>
+        <v>16.25788881645197</v>
       </c>
       <c r="D12">
-        <v>5.838276587964337</v>
+        <v>3.577345459806268</v>
       </c>
       <c r="E12">
-        <v>20.81787895845543</v>
+        <v>39.59342978477287</v>
       </c>
       <c r="F12">
-        <v>32.83104958979806</v>
+        <v>35.15751559835347</v>
       </c>
       <c r="I12">
-        <v>24.91328740250841</v>
+        <v>21.32366986811286</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.28800505306839</v>
+        <v>19.49598777023146</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.53263075300237</v>
+        <v>12.37885992413951</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.13859089982853</v>
+        <v>20.4513611777758</v>
       </c>
       <c r="C13">
-        <v>9.381210961838553</v>
+        <v>16.20828935651611</v>
       </c>
       <c r="D13">
-        <v>5.839028510723496</v>
+        <v>3.583273435852255</v>
       </c>
       <c r="E13">
-        <v>20.76238184345391</v>
+        <v>39.46696047340086</v>
       </c>
       <c r="F13">
-        <v>32.81566506756843</v>
+        <v>35.07704127547278</v>
       </c>
       <c r="I13">
-        <v>24.91041455932957</v>
+        <v>21.29199427471624</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.27259530404959</v>
+        <v>19.43932544461581</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.53542020608932</v>
+        <v>12.38914782626927</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.07470178484429</v>
+        <v>20.25516108999804</v>
       </c>
       <c r="C14">
-        <v>9.321216649589473</v>
+        <v>16.04603767876454</v>
       </c>
       <c r="D14">
-        <v>5.841484011196473</v>
+        <v>3.602536190899794</v>
       </c>
       <c r="E14">
-        <v>20.58039363580254</v>
+        <v>39.05368430993808</v>
       </c>
       <c r="F14">
-        <v>32.76567006392588</v>
+        <v>34.81477948513287</v>
       </c>
       <c r="I14">
-        <v>24.90118401603769</v>
+        <v>21.18922590470486</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.22230203576053</v>
+        <v>19.25388195162724</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.54456562288526</v>
+        <v>12.42286436446081</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.03547491474057</v>
+        <v>20.13441526725578</v>
       </c>
       <c r="C15">
-        <v>9.284322430181147</v>
+        <v>15.94626734015749</v>
       </c>
       <c r="D15">
-        <v>5.842990634199595</v>
+        <v>3.614283224406428</v>
       </c>
       <c r="E15">
-        <v>20.4681515212462</v>
+        <v>38.79988340461428</v>
       </c>
       <c r="F15">
-        <v>32.73518376861094</v>
+        <v>34.65427335722007</v>
       </c>
       <c r="I15">
-        <v>24.89563645370028</v>
+        <v>21.12668297797132</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.19146750542517</v>
+        <v>19.13978459947874</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.55020464620204</v>
+        <v>12.44364219354903</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.80932589292058</v>
+        <v>19.43360248847555</v>
       </c>
       <c r="C16">
-        <v>9.070711453911429</v>
+        <v>15.3684187064831</v>
       </c>
       <c r="D16">
-        <v>5.851664073733452</v>
+        <v>3.680866441660799</v>
       </c>
       <c r="E16">
-        <v>19.81312363710416</v>
+        <v>37.33467346209804</v>
       </c>
       <c r="F16">
-        <v>32.56261594584329</v>
+        <v>33.73645255842336</v>
       </c>
       <c r="I16">
-        <v>24.86547833813981</v>
+        <v>20.77435027843023</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.01438593577018</v>
+        <v>18.47798380606482</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.58308953642506</v>
+        <v>12.56456978759625</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.66945833421396</v>
+        <v>18.99558975626967</v>
       </c>
       <c r="C17">
-        <v>8.937777874002743</v>
+        <v>15.0082918703941</v>
       </c>
       <c r="D17">
-        <v>5.857020693160667</v>
+        <v>3.721121716512816</v>
       </c>
       <c r="E17">
-        <v>19.40071560867555</v>
+        <v>36.42547120653673</v>
       </c>
       <c r="F17">
-        <v>32.45869598927793</v>
+        <v>33.17505673047565</v>
       </c>
       <c r="I17">
-        <v>24.84843583829751</v>
+        <v>20.56348139236555</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.90547246716317</v>
+        <v>18.06471459108838</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.60377179033018</v>
+        <v>12.64034751959427</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.58862565573061</v>
+        <v>18.74061839003573</v>
       </c>
       <c r="C18">
-        <v>8.860648260627354</v>
+        <v>14.79901460751852</v>
       </c>
       <c r="D18">
-        <v>5.860114979893014</v>
+        <v>3.74408204906753</v>
       </c>
       <c r="E18">
-        <v>19.15961396647398</v>
+        <v>35.89844948495882</v>
       </c>
       <c r="F18">
-        <v>32.39965351607953</v>
+        <v>32.85273522109252</v>
       </c>
       <c r="I18">
-        <v>24.83916998708557</v>
+        <v>20.44407974938643</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.8427500235165</v>
+        <v>17.82427206508833</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.61585448263216</v>
+        <v>12.68449406385525</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.56119414316188</v>
+        <v>18.65376166467622</v>
       </c>
       <c r="C19">
-        <v>8.834420952439938</v>
+        <v>14.72778265203882</v>
       </c>
       <c r="D19">
-        <v>5.861164952218847</v>
+        <v>3.751824943292153</v>
       </c>
       <c r="E19">
-        <v>19.07731098687165</v>
+        <v>35.71928512262769</v>
       </c>
       <c r="F19">
-        <v>32.37978942634491</v>
+        <v>32.74370013232344</v>
       </c>
       <c r="I19">
-        <v>24.83612492252385</v>
+        <v>20.40397121574282</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.82150219608573</v>
+        <v>17.74238549783343</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.61997755514871</v>
+        <v>12.69953559665192</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.68438800407222</v>
+        <v>19.04252993761163</v>
       </c>
       <c r="C20">
-        <v>8.951998777527038</v>
+        <v>15.04684811619184</v>
       </c>
       <c r="D20">
-        <v>5.856449099054441</v>
+        <v>3.716857010573917</v>
       </c>
       <c r="E20">
-        <v>19.44502005921335</v>
+        <v>36.52267296244981</v>
       </c>
       <c r="F20">
-        <v>32.4696832715827</v>
+        <v>33.23475788224528</v>
       </c>
       <c r="I20">
-        <v>24.8501945220003</v>
+        <v>20.58573252724631</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.9170751543624</v>
+        <v>18.10899002358719</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.60155079453316</v>
+        <v>12.63222225609906</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.09348709746862</v>
+        <v>20.3129076881033</v>
       </c>
       <c r="C21">
-        <v>9.338868974866127</v>
+        <v>16.09377502932102</v>
       </c>
       <c r="D21">
-        <v>5.840762239004252</v>
+        <v>3.596889235197944</v>
       </c>
       <c r="E21">
-        <v>20.63400819840498</v>
+        <v>39.17520877703962</v>
       </c>
       <c r="F21">
-        <v>32.7803263254451</v>
+        <v>34.89178329388152</v>
       </c>
       <c r="I21">
-        <v>24.90387307861338</v>
+        <v>21.21932657170665</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.23708044656714</v>
+        <v>19.30845661702481</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.54187164131739</v>
+        <v>12.41293468828221</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.35678052385554</v>
+        <v>21.11758658112233</v>
       </c>
       <c r="C22">
-        <v>9.585242468286841</v>
+        <v>16.76050824036244</v>
       </c>
       <c r="D22">
-        <v>5.830624905838215</v>
+        <v>3.516223831601232</v>
       </c>
       <c r="E22">
-        <v>21.37662842324275</v>
+        <v>40.87862396384268</v>
       </c>
       <c r="F22">
-        <v>32.98952565968997</v>
+        <v>35.98076962439166</v>
       </c>
       <c r="I22">
-        <v>24.94371948928115</v>
+        <v>21.65142372896586</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.44501415903945</v>
+        <v>20.06946203164934</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.50453234551667</v>
+        <v>12.27516633000274</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.21665882075076</v>
+        <v>20.69037913208695</v>
       </c>
       <c r="C23">
-        <v>9.454362652382173</v>
+        <v>16.40617805194149</v>
       </c>
       <c r="D23">
-        <v>5.83602504504814</v>
+        <v>3.559511779026196</v>
       </c>
       <c r="E23">
-        <v>20.98341901854121</v>
+        <v>39.97191600419288</v>
       </c>
       <c r="F23">
-        <v>32.87732284845578</v>
+        <v>35.39894472432327</v>
       </c>
       <c r="I23">
-        <v>24.92201758795346</v>
+        <v>21.41909203965356</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.33417056200223</v>
+        <v>19.6653178413809</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.52430867593997</v>
+        <v>12.3481580210014</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.67763960402965</v>
+        <v>19.02131811499004</v>
       </c>
       <c r="C24">
-        <v>8.945571695017831</v>
+        <v>15.02942381733945</v>
       </c>
       <c r="D24">
-        <v>5.856707470905611</v>
+        <v>3.718785648414204</v>
       </c>
       <c r="E24">
-        <v>19.42500248796413</v>
+        <v>36.4787415344891</v>
       </c>
       <c r="F24">
-        <v>32.46471372947023</v>
+        <v>33.20776565178365</v>
       </c>
       <c r="I24">
-        <v>24.84939776343452</v>
+        <v>20.57566710287495</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.91182990582768</v>
+        <v>18.08898198892619</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.60255430804283</v>
+        <v>12.6358938839899</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.08198253152991</v>
+        <v>17.10415527661949</v>
       </c>
       <c r="C25">
-        <v>8.371555263831089</v>
+        <v>13.46180304048378</v>
       </c>
       <c r="D25">
-        <v>5.879527460027903</v>
+        <v>3.883409671371009</v>
       </c>
       <c r="E25">
-        <v>17.63262602567066</v>
+        <v>32.55259022356453</v>
       </c>
       <c r="F25">
-        <v>32.04770359443615</v>
+        <v>30.86663985493091</v>
       </c>
       <c r="I25">
-        <v>24.79157776242118</v>
+        <v>19.73744877480813</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.45360935518264</v>
+        <v>16.28319766765173</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.6940967928718</v>
+        <v>12.96753305913035</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.58513964287845</v>
+        <v>24.03912910964759</v>
       </c>
       <c r="C2">
-        <v>12.22929931453877</v>
+        <v>17.43610907751401</v>
       </c>
       <c r="D2">
-        <v>4.000791587678965</v>
+        <v>5.645419062495939</v>
       </c>
       <c r="E2">
-        <v>29.4987138453767</v>
+        <v>6.863109225107139</v>
       </c>
       <c r="F2">
-        <v>29.16188381251196</v>
+        <v>40.41990741977342</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.02613036804859</v>
       </c>
       <c r="I2">
-        <v>19.17627492336003</v>
+        <v>2.929255597982565</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>14.85594524337079</v>
+        <v>27.62635374384049</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,39 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.22788532344966</v>
+        <v>8.25274130543689</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.48563930944052</v>
+        <v>22.47261134113976</v>
       </c>
       <c r="C3">
-        <v>11.34210500204752</v>
+        <v>16.23339414237104</v>
       </c>
       <c r="D3">
-        <v>4.078914644034785</v>
+        <v>5.574876076283084</v>
       </c>
       <c r="E3">
-        <v>27.31611776284681</v>
+        <v>6.562816623085172</v>
       </c>
       <c r="F3">
-        <v>28.02039244073348</v>
+        <v>38.44551530755749</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.355117286357314</v>
       </c>
       <c r="I3">
-        <v>18.82846557524184</v>
+        <v>3.22583832501543</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>13.82476749418833</v>
+        <v>26.64381156498273</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,39 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.41364104048204</v>
+        <v>7.856814288907563</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77508040926494</v>
+        <v>21.45801825182291</v>
       </c>
       <c r="C4">
-        <v>10.77085960594431</v>
+        <v>15.45896180937642</v>
       </c>
       <c r="D4">
-        <v>4.126449843530519</v>
+        <v>5.528675005221321</v>
       </c>
       <c r="E4">
-        <v>25.91705380415483</v>
+        <v>6.373439932185669</v>
       </c>
       <c r="F4">
-        <v>27.3275238671555</v>
+        <v>37.18730761592249</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.562988629145515</v>
       </c>
       <c r="I4">
-        <v>18.63017274733465</v>
+        <v>3.413803134596491</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.15921792480044</v>
+        <v>26.02100672018133</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,39 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.53209523274718</v>
+        <v>7.604309996410807</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.47647972721718</v>
+        <v>21.03140190764024</v>
       </c>
       <c r="C5">
-        <v>10.53128708026953</v>
+        <v>15.14192871933085</v>
       </c>
       <c r="D5">
-        <v>4.145748141342903</v>
+        <v>5.504085428723505</v>
       </c>
       <c r="E5">
-        <v>25.33166833648558</v>
+        <v>6.293521609329384</v>
       </c>
       <c r="F5">
-        <v>27.04741682708458</v>
+        <v>36.6266948413501</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.649863593394134</v>
       </c>
       <c r="I5">
-        <v>18.55309176363802</v>
+        <v>3.494900808072938</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>12.87973522747907</v>
+        <v>25.73369173166343</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,39 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.58144847218828</v>
+        <v>7.499425713406922</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.42634765856655</v>
+        <v>20.95985908459775</v>
       </c>
       <c r="C6">
-        <v>10.49109308446671</v>
+        <v>15.09814327892468</v>
       </c>
       <c r="D6">
-        <v>4.148949212002075</v>
+        <v>5.493813824529588</v>
       </c>
       <c r="E6">
-        <v>25.23353207670507</v>
+        <v>6.278419138611069</v>
       </c>
       <c r="F6">
-        <v>27.00104802540057</v>
+        <v>36.48793808496594</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.665162833237697</v>
       </c>
       <c r="I6">
-        <v>18.54051412918173</v>
+        <v>3.512278863387146</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>12.83282482580944</v>
+        <v>25.65045341724782</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,39 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.58970828121253</v>
+        <v>7.482264503851145</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.77109014814639</v>
+        <v>21.45252421998708</v>
       </c>
       <c r="C7">
-        <v>10.76765627340835</v>
+        <v>15.47974802747958</v>
       </c>
       <c r="D7">
-        <v>4.126710356096436</v>
+        <v>5.511615426951042</v>
       </c>
       <c r="E7">
-        <v>25.90922140990462</v>
+        <v>6.367640651089719</v>
       </c>
       <c r="F7">
-        <v>27.32373683928162</v>
+        <v>37.05888121126442</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.566264456392319</v>
       </c>
       <c r="I7">
-        <v>18.62911827584887</v>
+        <v>3.425108981581368</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.15548234114164</v>
+        <v>25.92193573880895</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,39 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.53275647460569</v>
+        <v>7.603959662075227</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.21331424702858</v>
+        <v>23.50999946836863</v>
       </c>
       <c r="C8">
-        <v>11.92881990336317</v>
+        <v>17.05909813246656</v>
       </c>
       <c r="D8">
-        <v>4.02784106228688</v>
+        <v>5.59989059134648</v>
       </c>
       <c r="E8">
-        <v>28.75811510053851</v>
+        <v>6.754569148080214</v>
       </c>
       <c r="F8">
-        <v>28.76675958856072</v>
+        <v>39.59795798386184</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.141082012570588</v>
       </c>
       <c r="I8">
-        <v>19.05311483887826</v>
+        <v>3.043836104774113</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>14.50704618309018</v>
+        <v>27.17077563643697</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,39 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.29100487631082</v>
+        <v>8.119532357579198</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.76620757259019</v>
+        <v>27.22110625245902</v>
       </c>
       <c r="C9">
-        <v>14.00157066400413</v>
+        <v>19.8364747778422</v>
       </c>
       <c r="D9">
-        <v>3.828692352252944</v>
+        <v>5.779289486034574</v>
       </c>
       <c r="E9">
-        <v>33.89881079771523</v>
+        <v>7.48434925417068</v>
       </c>
       <c r="F9">
-        <v>31.65242253994338</v>
+        <v>44.39614458382863</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.768110757602306</v>
       </c>
       <c r="I9">
-        <v>20.01076388199231</v>
+        <v>2.628189607404491</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>16.9062188940019</v>
+        <v>29.61770591649753</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,39 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.85318683907656</v>
+        <v>9.052315245553363</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.48317583036907</v>
+        <v>29.69407812620388</v>
       </c>
       <c r="C10">
-        <v>15.40922648363886</v>
+        <v>21.77003456071697</v>
       </c>
       <c r="D10">
-        <v>3.676245135307076</v>
+        <v>5.813092505016608</v>
       </c>
       <c r="E10">
-        <v>37.43788710325541</v>
+        <v>7.948533901803495</v>
       </c>
       <c r="F10">
-        <v>33.80059200444353</v>
+        <v>47.14495020338869</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.296829811427553</v>
       </c>
       <c r="I10">
-        <v>20.7986710818217</v>
+        <v>3.107831974274635</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>18.52477405221454</v>
+        <v>30.8795078423273</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,39 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.55600075044141</v>
+        <v>9.548846427370863</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.23210460193009</v>
+        <v>30.71714750633855</v>
       </c>
       <c r="C11">
-        <v>16.02698161544494</v>
+        <v>23.04909056168007</v>
       </c>
       <c r="D11">
-        <v>3.604785612034747</v>
+        <v>5.215166169136807</v>
       </c>
       <c r="E11">
-        <v>39.0051893996617</v>
+        <v>7.967684885430201</v>
       </c>
       <c r="F11">
-        <v>34.78407779987884</v>
+        <v>44.08267507988018</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.128811095017249</v>
       </c>
       <c r="I11">
-        <v>21.17724184326204</v>
+        <v>3.2296556181632</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>19.23209331402817</v>
+        <v>27.99836039540484</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,39 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.42683033501988</v>
+        <v>8.576659603067302</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.51129796176447</v>
+        <v>31.08140822983099</v>
       </c>
       <c r="C12">
-        <v>16.25788881645197</v>
+        <v>23.71428086375597</v>
       </c>
       <c r="D12">
-        <v>3.577345459806268</v>
+        <v>4.835590077963917</v>
       </c>
       <c r="E12">
-        <v>39.59342978477287</v>
+        <v>8.237095823167987</v>
       </c>
       <c r="F12">
-        <v>35.15751559835347</v>
+        <v>41.04575072027168</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.321438270633167</v>
       </c>
       <c r="I12">
-        <v>21.32366986811286</v>
+        <v>3.239089003840233</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>19.49598777023146</v>
+        <v>25.43010573404221</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,39 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.37885992413951</v>
+        <v>7.67729388180924</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.4513611777758</v>
+        <v>30.97248295389151</v>
       </c>
       <c r="C13">
-        <v>16.20828935651611</v>
+        <v>23.9974909395488</v>
       </c>
       <c r="D13">
-        <v>3.583273435852255</v>
+        <v>4.601997078627847</v>
       </c>
       <c r="E13">
-        <v>39.46696047340086</v>
+        <v>8.677262167471365</v>
       </c>
       <c r="F13">
-        <v>35.07704127547278</v>
+        <v>37.60475593327918</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.591488008146638</v>
       </c>
       <c r="I13">
-        <v>21.29199427471624</v>
+        <v>3.164524792788818</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>19.43932544461581</v>
+        <v>22.7850086680612</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,39 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.38914782626927</v>
+        <v>6.775448129167177</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.25516108999804</v>
+        <v>30.68160960064628</v>
       </c>
       <c r="C14">
-        <v>16.04603767876454</v>
+        <v>24.03526655619362</v>
       </c>
       <c r="D14">
-        <v>3.602536190899794</v>
+        <v>4.532919239349174</v>
       </c>
       <c r="E14">
-        <v>39.05368430993808</v>
+        <v>9.085263914223495</v>
       </c>
       <c r="F14">
-        <v>34.81477948513287</v>
+        <v>34.94502909920057</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.510603544376936</v>
       </c>
       <c r="I14">
-        <v>21.18922590470486</v>
+        <v>3.076182043292491</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>19.25388195162724</v>
+        <v>20.87856573988034</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,39 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.42286436446081</v>
+        <v>6.155560314999028</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.13441526725578</v>
+        <v>30.50797800485661</v>
       </c>
       <c r="C15">
-        <v>15.94626734015749</v>
+        <v>23.97027341432476</v>
       </c>
       <c r="D15">
-        <v>3.614283224406428</v>
+        <v>4.53137144537576</v>
       </c>
       <c r="E15">
-        <v>38.79988340461428</v>
+        <v>9.17761949149271</v>
       </c>
       <c r="F15">
-        <v>34.65427335722007</v>
+        <v>34.16770191686329</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.7178028516996</v>
       </c>
       <c r="I15">
-        <v>21.12668297797132</v>
+        <v>3.036711014760734</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>19.13978459947874</v>
+        <v>20.36926185689898</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,39 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.44364219354903</v>
+        <v>6.000882759869356</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.43360248847555</v>
+        <v>29.51677813463343</v>
       </c>
       <c r="C16">
-        <v>15.3684187064831</v>
+        <v>23.16513016743827</v>
       </c>
       <c r="D16">
-        <v>3.680866441660799</v>
+        <v>4.560942009403266</v>
       </c>
       <c r="E16">
-        <v>37.33467346209804</v>
+        <v>8.90380744784593</v>
       </c>
       <c r="F16">
-        <v>33.73645255842336</v>
+        <v>33.41201322381095</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.439084942391636</v>
       </c>
       <c r="I16">
-        <v>20.77435027843023</v>
+        <v>2.849357922887935</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>18.47798380606482</v>
+        <v>20.22511812988133</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,39 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.56456978759625</v>
+        <v>5.92842926077746</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.99558975626967</v>
+        <v>28.90093901282754</v>
       </c>
       <c r="C17">
-        <v>15.0082918703941</v>
+        <v>22.51120415248718</v>
       </c>
       <c r="D17">
-        <v>3.721121716512816</v>
+        <v>4.60329701756044</v>
       </c>
       <c r="E17">
-        <v>36.42547120653673</v>
+        <v>8.4392198971971</v>
       </c>
       <c r="F17">
-        <v>33.17505673047565</v>
+        <v>34.30192828379266</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.697235125753479</v>
       </c>
       <c r="I17">
-        <v>20.56348139236555</v>
+        <v>2.752205321702972</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>18.06471459108838</v>
+        <v>21.13429855146545</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,39 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.64034751959427</v>
+        <v>6.201873041377087</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.74061839003573</v>
+        <v>28.55352912184775</v>
       </c>
       <c r="C18">
-        <v>14.79901460751852</v>
+        <v>21.90707190813053</v>
       </c>
       <c r="D18">
-        <v>3.74408204906753</v>
+        <v>4.744702034893908</v>
       </c>
       <c r="E18">
-        <v>35.89844948495882</v>
+        <v>7.882809839257665</v>
       </c>
       <c r="F18">
-        <v>32.85273522109252</v>
+        <v>36.79775442675756</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.426981312942706</v>
       </c>
       <c r="I18">
-        <v>20.44407974938643</v>
+        <v>2.722655203146409</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>17.82427206508833</v>
+        <v>23.15402528928243</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,39 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.68449406385525</v>
+        <v>6.847632577513944</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.65376166467622</v>
+        <v>28.45402956249922</v>
       </c>
       <c r="C19">
-        <v>14.72778265203882</v>
+        <v>21.43950799709829</v>
       </c>
       <c r="D19">
-        <v>3.751824943292153</v>
+        <v>5.050776524327895</v>
       </c>
       <c r="E19">
-        <v>35.71928512262769</v>
+        <v>7.533587456552659</v>
       </c>
       <c r="F19">
-        <v>32.74370013232344</v>
+        <v>40.18218848207431</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.052870348615724</v>
       </c>
       <c r="I19">
-        <v>20.40397121574282</v>
+        <v>2.764369529639837</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>17.74238549783343</v>
+        <v>25.80708528252396</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,39 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.69953559665192</v>
+        <v>7.78614386429331</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.04252993761163</v>
+        <v>29.05999102512012</v>
       </c>
       <c r="C20">
-        <v>15.04684811619184</v>
+        <v>21.33405619807576</v>
       </c>
       <c r="D20">
-        <v>3.716857010573917</v>
+        <v>5.75331138391141</v>
       </c>
       <c r="E20">
-        <v>36.52267296244981</v>
+        <v>7.812185240444131</v>
       </c>
       <c r="F20">
-        <v>33.23475788224528</v>
+        <v>46.10651996385858</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.151606733034478</v>
       </c>
       <c r="I20">
-        <v>20.58573252724631</v>
+        <v>2.988756946253532</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>18.10899002358719</v>
+        <v>30.28036724367185</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,39 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.63222225609906</v>
+        <v>9.417088877230281</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.3129076881033</v>
+        <v>30.88141566495933</v>
       </c>
       <c r="C21">
-        <v>16.09377502932102</v>
+        <v>22.67845571236356</v>
       </c>
       <c r="D21">
-        <v>3.596889235197944</v>
+        <v>5.902977270865251</v>
       </c>
       <c r="E21">
-        <v>39.17520877703962</v>
+        <v>8.247045065517062</v>
       </c>
       <c r="F21">
-        <v>34.89178329388152</v>
+        <v>48.96342631947059</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.57897219329035</v>
       </c>
       <c r="I21">
-        <v>21.21932657170665</v>
+        <v>3.368811507544523</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>19.30845661702481</v>
+        <v>31.87792826047457</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,39 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.41293468828221</v>
+        <v>10.00128824687754</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.11758658112233</v>
+        <v>32.02286529280498</v>
       </c>
       <c r="C22">
-        <v>16.76050824036244</v>
+        <v>23.53299585390473</v>
       </c>
       <c r="D22">
-        <v>3.516223831601232</v>
+        <v>5.979746121177061</v>
       </c>
       <c r="E22">
-        <v>40.87862396384268</v>
+        <v>8.507958673202372</v>
       </c>
       <c r="F22">
-        <v>35.98076962439166</v>
+        <v>50.65414323074868</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.848636062064426</v>
       </c>
       <c r="I22">
-        <v>21.65142372896586</v>
+        <v>3.608043894206066</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>20.06946203164934</v>
+        <v>32.80195010716557</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,39 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.27516633000274</v>
+        <v>10.30046457845435</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.69037913208695</v>
+        <v>31.41905442651385</v>
       </c>
       <c r="C23">
-        <v>16.40617805194149</v>
+        <v>23.05890991878999</v>
       </c>
       <c r="D23">
-        <v>3.559511779026196</v>
+        <v>5.957322528078084</v>
       </c>
       <c r="E23">
-        <v>39.97191600419288</v>
+        <v>8.373583033465874</v>
       </c>
       <c r="F23">
-        <v>35.39894472432327</v>
+        <v>49.86655221723385</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.707131697775672</v>
       </c>
       <c r="I23">
-        <v>21.41909203965356</v>
+        <v>3.478569147414445</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>19.6653178413809</v>
+        <v>32.40368041858036</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,39 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.3481580210014</v>
+        <v>10.14064767237077</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.02131811499004</v>
+        <v>29.03499223596726</v>
       </c>
       <c r="C24">
-        <v>15.02942381733945</v>
+        <v>21.23965733624409</v>
       </c>
       <c r="D24">
-        <v>3.718785648414204</v>
+        <v>5.838997887442645</v>
       </c>
       <c r="E24">
-        <v>36.4787415344891</v>
+        <v>7.853723959410925</v>
       </c>
       <c r="F24">
-        <v>33.20776565178365</v>
+        <v>46.62334538341204</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.162083603598564</v>
       </c>
       <c r="I24">
-        <v>20.57566710287495</v>
+        <v>2.987387392665708</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>18.08898198892619</v>
+        <v>30.71184451088924</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,39 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.6358938839899</v>
+        <v>9.518946127976799</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10415527661949</v>
+        <v>26.25472999238668</v>
       </c>
       <c r="C25">
-        <v>13.46180304048378</v>
+        <v>19.15126690619843</v>
       </c>
       <c r="D25">
-        <v>3.883409671371009</v>
+        <v>5.704187815245031</v>
       </c>
       <c r="E25">
-        <v>32.55259022356453</v>
+        <v>7.28271271943919</v>
       </c>
       <c r="F25">
-        <v>30.86663985493091</v>
+        <v>42.95018278136639</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.561645587580376</v>
       </c>
       <c r="I25">
-        <v>19.73744877480813</v>
+        <v>2.534939558221962</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>16.28319766765173</v>
+        <v>28.81829853035774</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.96753305913035</v>
+        <v>8.810049902400866</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03912910964759</v>
+        <v>24.07767342091157</v>
       </c>
       <c r="C2">
-        <v>17.43610907751401</v>
+        <v>18.66428114198268</v>
       </c>
       <c r="D2">
-        <v>5.645419062495939</v>
+        <v>4.766247483905559</v>
       </c>
       <c r="E2">
-        <v>6.863109225107139</v>
+        <v>6.778996928138968</v>
       </c>
       <c r="F2">
-        <v>40.41990741977342</v>
+        <v>34.07467501955652</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.02613036804859</v>
+        <v>1.898032551237862</v>
       </c>
       <c r="I2">
-        <v>2.929255597982565</v>
+        <v>2.780309994643515</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>27.62635374384049</v>
+        <v>22.45018261941618</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.18889075669259</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.31744485107844</v>
       </c>
       <c r="N2">
-        <v>8.25274130543689</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.42522283083972</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47261134113976</v>
+        <v>22.46579192017414</v>
       </c>
       <c r="C3">
-        <v>16.23339414237104</v>
+        <v>17.34388128754016</v>
       </c>
       <c r="D3">
-        <v>5.574876076283084</v>
+        <v>4.774878342922626</v>
       </c>
       <c r="E3">
-        <v>6.562816623085172</v>
+        <v>6.516426974114448</v>
       </c>
       <c r="F3">
-        <v>38.44551530755749</v>
+        <v>32.71511351162106</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.355117286357314</v>
+        <v>2.193302637900318</v>
       </c>
       <c r="I3">
-        <v>3.22583832501543</v>
+        <v>3.036942894019891</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>26.64381156498273</v>
+        <v>21.99840116185859</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.99874634137187</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.81243038555</v>
       </c>
       <c r="N3">
-        <v>7.856814288907563</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.036378679381189</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45801825182291</v>
+        <v>21.44333203798354</v>
       </c>
       <c r="C4">
-        <v>15.45896180937642</v>
+        <v>16.49144905844203</v>
       </c>
       <c r="D4">
-        <v>5.528675005221321</v>
+        <v>4.778427427776399</v>
       </c>
       <c r="E4">
-        <v>6.373439932185669</v>
+        <v>6.350853333194223</v>
       </c>
       <c r="F4">
-        <v>37.18730761592249</v>
+        <v>31.85420940932801</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.562988629145515</v>
+        <v>2.380146979032623</v>
       </c>
       <c r="I4">
-        <v>3.413803134596491</v>
+        <v>3.2001593535705</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>26.02100672018133</v>
+        <v>21.71355617050829</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.86994828866592</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.51328551870968</v>
       </c>
       <c r="N4">
-        <v>7.604309996410807</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.788636785936736</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03140190764024</v>
+        <v>21.01277635520929</v>
       </c>
       <c r="C5">
-        <v>15.14192871933085</v>
+        <v>16.13998289208307</v>
       </c>
       <c r="D5">
-        <v>5.504085428723505</v>
+        <v>4.777055091801516</v>
       </c>
       <c r="E5">
-        <v>6.293521609329384</v>
+        <v>6.281244573448516</v>
       </c>
       <c r="F5">
-        <v>36.6266948413501</v>
+        <v>31.4678963206412</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.649863593394134</v>
+        <v>2.458262653082761</v>
       </c>
       <c r="I5">
-        <v>3.494900808072938</v>
+        <v>3.271495759783126</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>25.73369173166343</v>
+        <v>21.57405988258698</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.79720320441558</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.37899173162712</v>
       </c>
       <c r="N5">
-        <v>7.499425713406922</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.685728257041231</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95985908459775</v>
+        <v>20.94049399971496</v>
       </c>
       <c r="C6">
-        <v>15.09814327892468</v>
+        <v>16.0889157483126</v>
       </c>
       <c r="D6">
-        <v>5.493813824529588</v>
+        <v>4.773907922302226</v>
       </c>
       <c r="E6">
-        <v>6.278419138611069</v>
+        <v>6.268403026602409</v>
       </c>
       <c r="F6">
-        <v>36.48793808496594</v>
+        <v>31.36765545322574</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.665162833237697</v>
+        <v>2.471981236441994</v>
       </c>
       <c r="I6">
-        <v>3.512278863387146</v>
+        <v>3.287774549725266</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>25.65045341724782</v>
+        <v>21.52441843934506</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.7639380471063</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.33797565274249</v>
       </c>
       <c r="N6">
-        <v>7.482264503851145</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.668801866814833</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45252421998708</v>
+        <v>21.43768717864162</v>
       </c>
       <c r="C7">
-        <v>15.47974802747958</v>
+        <v>16.50785309060343</v>
       </c>
       <c r="D7">
-        <v>5.511615426951042</v>
+        <v>4.77061734754704</v>
       </c>
       <c r="E7">
-        <v>6.367640651089719</v>
+        <v>6.346661004865046</v>
       </c>
       <c r="F7">
-        <v>37.05888121126442</v>
+        <v>31.75299536330958</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.566264456392319</v>
+        <v>2.382972376291182</v>
       </c>
       <c r="I7">
-        <v>3.425108981581368</v>
+        <v>3.212709659860413</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>25.92193573880895</v>
+        <v>21.64037091045176</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.81269898901695</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.45971751470906</v>
       </c>
       <c r="N7">
-        <v>7.603959662075227</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.788046259027778</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.50999946836863</v>
+        <v>23.53044586437845</v>
       </c>
       <c r="C8">
-        <v>17.05909813246656</v>
+        <v>18.24315426289717</v>
       </c>
       <c r="D8">
-        <v>5.59989059134648</v>
+        <v>4.759804354714031</v>
       </c>
       <c r="E8">
-        <v>6.754569148080214</v>
+        <v>6.685261509067109</v>
       </c>
       <c r="F8">
-        <v>39.59795798386184</v>
+        <v>33.4912907337516</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.141082012570588</v>
+        <v>2.000960950813678</v>
       </c>
       <c r="I8">
-        <v>3.043836104774113</v>
+        <v>2.882951892314918</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>27.17077563643697</v>
+        <v>22.20486751740342</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.05584283219266</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.07304302965266</v>
       </c>
       <c r="N8">
-        <v>8.119532357579198</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.294063501428885</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.22110625245902</v>
+        <v>27.24784897581468</v>
       </c>
       <c r="C9">
-        <v>19.8364747778422</v>
+        <v>21.28669595051716</v>
       </c>
       <c r="D9">
-        <v>5.779289486034574</v>
+        <v>4.737419960916103</v>
       </c>
       <c r="E9">
-        <v>7.48434925417068</v>
+        <v>7.322352238244351</v>
       </c>
       <c r="F9">
-        <v>44.39614458382863</v>
+        <v>36.84127878076577</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.768110757602306</v>
+        <v>1.823626706708002</v>
       </c>
       <c r="I9">
-        <v>2.628189607404491</v>
+        <v>2.69752273183625</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>29.61770591649753</v>
+        <v>23.37351882451142</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.53096660495417</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.44124619795665</v>
       </c>
       <c r="N9">
-        <v>9.052315245553363</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.21121187986895</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.69407812620388</v>
+        <v>29.69530730814075</v>
       </c>
       <c r="C10">
-        <v>21.77003456071697</v>
+        <v>23.36504535224569</v>
       </c>
       <c r="D10">
-        <v>5.813092505016608</v>
+        <v>4.681303423684956</v>
       </c>
       <c r="E10">
-        <v>7.948533901803495</v>
+        <v>7.743405847663134</v>
       </c>
       <c r="F10">
-        <v>47.14495020338869</v>
+        <v>38.76733087341439</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.296829811427553</v>
+        <v>2.295934526470056</v>
       </c>
       <c r="I10">
-        <v>3.107831974274635</v>
+        <v>3.113460115023066</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>30.8795078423273</v>
+        <v>23.89519340138807</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.60594905371497</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.24037156354632</v>
       </c>
       <c r="N10">
-        <v>9.548846427370863</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.695531541675974</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.71714750633855</v>
+        <v>30.71611078893901</v>
       </c>
       <c r="C11">
-        <v>23.04909056168007</v>
+        <v>24.51848582841673</v>
       </c>
       <c r="D11">
-        <v>5.215166169136807</v>
+        <v>4.484831657668234</v>
       </c>
       <c r="E11">
-        <v>7.967684885430201</v>
+        <v>7.923303000446571</v>
       </c>
       <c r="F11">
-        <v>44.08267507988018</v>
+        <v>36.47188607773023</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.128811095017249</v>
+        <v>3.125419445297913</v>
       </c>
       <c r="I11">
-        <v>3.2296556181632</v>
+        <v>3.232047527428931</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>27.99836039540484</v>
+        <v>21.73562758747541</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.90611032597264</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.73286333060528</v>
       </c>
       <c r="N11">
-        <v>8.576659603067302</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.703581275254644</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.08140822983099</v>
+        <v>31.08307667124244</v>
       </c>
       <c r="C12">
-        <v>23.71428086375597</v>
+        <v>25.04756426765333</v>
       </c>
       <c r="D12">
-        <v>4.835590077963917</v>
+        <v>4.440245128951145</v>
       </c>
       <c r="E12">
-        <v>8.237095823167987</v>
+        <v>8.306583984442529</v>
       </c>
       <c r="F12">
-        <v>41.04575072027168</v>
+        <v>34.22443140689401</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.321438270633167</v>
+        <v>4.322299138094797</v>
       </c>
       <c r="I12">
-        <v>3.239089003840233</v>
+        <v>3.247682481998651</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>25.43010573404221</v>
+        <v>19.91027853920954</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.56083428137537</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.35223501378028</v>
       </c>
       <c r="N12">
-        <v>7.67729388180924</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.788840038486662</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.97248295389151</v>
+        <v>30.98091470722147</v>
       </c>
       <c r="C13">
-        <v>23.9974909395488</v>
+        <v>25.16906966626558</v>
       </c>
       <c r="D13">
-        <v>4.601997078627847</v>
+        <v>4.494978231878052</v>
       </c>
       <c r="E13">
-        <v>8.677262167471365</v>
+        <v>8.825404497697708</v>
       </c>
       <c r="F13">
-        <v>37.60475593327918</v>
+        <v>31.69089494423994</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.591488008146638</v>
+        <v>5.597850443311322</v>
       </c>
       <c r="I13">
-        <v>3.164524792788818</v>
+        <v>3.188961818071153</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>22.7850086680612</v>
+        <v>18.12098498281002</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.31891127550159</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.89561135755151</v>
       </c>
       <c r="N13">
-        <v>6.775448129167177</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.874042557806158</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.68160960064628</v>
+        <v>30.69628197229333</v>
       </c>
       <c r="C14">
-        <v>24.03526655619362</v>
+        <v>25.0777614358813</v>
       </c>
       <c r="D14">
-        <v>4.532919239349174</v>
+        <v>4.586806980593192</v>
       </c>
       <c r="E14">
-        <v>9.085263914223495</v>
+        <v>9.26700524316181</v>
       </c>
       <c r="F14">
-        <v>34.94502909920057</v>
+        <v>29.73660767529216</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.510603544376936</v>
+        <v>6.520265545609296</v>
       </c>
       <c r="I14">
-        <v>3.076182043292491</v>
+        <v>3.116044640439693</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.87856573988034</v>
+        <v>16.87954846624562</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.489751196243</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.83393764920557</v>
       </c>
       <c r="N14">
-        <v>6.155560314999028</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.246320718256493</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.50797800485661</v>
+        <v>30.5250909195574</v>
       </c>
       <c r="C15">
-        <v>23.97027341432476</v>
+        <v>24.97436752064873</v>
       </c>
       <c r="D15">
-        <v>4.53137144537576</v>
+        <v>4.617387865477108</v>
       </c>
       <c r="E15">
-        <v>9.17761949149271</v>
+        <v>9.364913429729919</v>
       </c>
       <c r="F15">
-        <v>34.16770191686329</v>
+        <v>29.1663532798769</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.7178028516996</v>
+        <v>6.728651131467292</v>
       </c>
       <c r="I15">
-        <v>3.036711014760734</v>
+        <v>3.08317469796443</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.36926185689898</v>
+        <v>16.56427338337559</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.28850278113123</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.5466085860746</v>
       </c>
       <c r="N15">
-        <v>6.000882759869356</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.090589830185968</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.51677813463343</v>
+        <v>29.54295423176947</v>
       </c>
       <c r="C16">
-        <v>23.16513016743827</v>
+        <v>24.12476391449306</v>
       </c>
       <c r="D16">
-        <v>4.560942009403266</v>
+        <v>4.612794500842681</v>
       </c>
       <c r="E16">
-        <v>8.90380744784593</v>
+        <v>9.091715481992445</v>
       </c>
       <c r="F16">
-        <v>33.41201322381095</v>
+        <v>28.64532536319131</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.439084942391636</v>
+        <v>6.441883092301065</v>
       </c>
       <c r="I16">
-        <v>2.849357922887935</v>
+        <v>2.920010909437829</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.22511812988133</v>
+        <v>16.62257544140938</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.40609339339046</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.44839521218652</v>
       </c>
       <c r="N16">
-        <v>5.92842926077746</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.027525646792617</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.90093901282754</v>
+        <v>28.93087608304082</v>
       </c>
       <c r="C17">
-        <v>22.51120415248718</v>
+        <v>23.50929329918797</v>
       </c>
       <c r="D17">
-        <v>4.60329701756044</v>
+        <v>4.555719909350002</v>
       </c>
       <c r="E17">
-        <v>8.4392198971971</v>
+        <v>8.61432127804564</v>
       </c>
       <c r="F17">
-        <v>34.30192828379266</v>
+        <v>29.32597626579992</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.697235125753479</v>
+        <v>5.681340227218109</v>
       </c>
       <c r="I17">
-        <v>2.752205321702972</v>
+        <v>2.833603558221145</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>21.13429855146545</v>
+        <v>17.32305430032949</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.94472344720981</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.93416002192991</v>
       </c>
       <c r="N17">
-        <v>6.201873041377087</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.311792912497024</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.55352912184775</v>
+        <v>28.58301576039014</v>
       </c>
       <c r="C18">
-        <v>21.90707190813053</v>
+        <v>23.02191496407294</v>
       </c>
       <c r="D18">
-        <v>4.744702034893908</v>
+        <v>4.491953173301343</v>
       </c>
       <c r="E18">
-        <v>7.882809839257665</v>
+        <v>8.014046394639731</v>
       </c>
       <c r="F18">
-        <v>36.79775442675756</v>
+        <v>31.18395036884645</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.426981312942706</v>
+        <v>4.451831995508847</v>
       </c>
       <c r="I18">
-        <v>2.722655203146409</v>
+        <v>2.802100014811191</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>23.15402528928243</v>
+        <v>18.73778674759822</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.98471299901966</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.01993108447372</v>
       </c>
       <c r="N18">
-        <v>6.847632577513944</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.970249662688209</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.45402956249922</v>
+        <v>28.47923190712711</v>
       </c>
       <c r="C19">
-        <v>21.43950799709829</v>
+        <v>22.71418009444529</v>
       </c>
       <c r="D19">
-        <v>5.050776524327895</v>
+        <v>4.50036975103558</v>
       </c>
       <c r="E19">
-        <v>7.533587456552659</v>
+        <v>7.568409784030666</v>
       </c>
       <c r="F19">
-        <v>40.18218848207431</v>
+        <v>33.6758807696073</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.052870348615724</v>
+        <v>3.084107044915391</v>
       </c>
       <c r="I19">
-        <v>2.764369529639837</v>
+        <v>2.832751419474844</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>25.80708528252396</v>
+        <v>20.55552440130717</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.31211931293654</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.43965234177853</v>
       </c>
       <c r="N19">
-        <v>7.78614386429331</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.921420037352283</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.05999102512012</v>
+        <v>29.06884562618027</v>
       </c>
       <c r="C20">
-        <v>21.33405619807576</v>
+        <v>22.88274912128751</v>
       </c>
       <c r="D20">
-        <v>5.75331138391141</v>
+        <v>4.67575418474683</v>
       </c>
       <c r="E20">
-        <v>7.812185240444131</v>
+        <v>7.623634538693402</v>
       </c>
       <c r="F20">
-        <v>46.10651996385858</v>
+        <v>38.00658728068795</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.151606733034478</v>
+        <v>2.166735573680517</v>
       </c>
       <c r="I20">
-        <v>2.988756946253532</v>
+        <v>3.015685528542067</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>30.28036724367185</v>
+        <v>23.55188716468862</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.43637782271363</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.86755068617164</v>
       </c>
       <c r="N20">
-        <v>9.417088877230281</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.566351113021861</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.88141566495933</v>
+        <v>30.866789186582</v>
       </c>
       <c r="C21">
-        <v>22.67845571236356</v>
+        <v>24.36435278737587</v>
       </c>
       <c r="D21">
-        <v>5.902977270865251</v>
+        <v>4.676620125435892</v>
       </c>
       <c r="E21">
-        <v>8.247045065517062</v>
+        <v>7.990664363368044</v>
       </c>
       <c r="F21">
-        <v>48.96342631947059</v>
+        <v>40.05024227679343</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.57897219329035</v>
+        <v>2.546461426819633</v>
       </c>
       <c r="I21">
-        <v>3.368811507544523</v>
+        <v>3.341639357568064</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>31.87792826047457</v>
+        <v>24.40542587862294</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.81958363294299</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.84520120756785</v>
       </c>
       <c r="N21">
-        <v>10.00128824687754</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.14372503235245</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.02286529280498</v>
+        <v>31.99189648999479</v>
       </c>
       <c r="C22">
-        <v>23.53299585390473</v>
+        <v>25.29551362419777</v>
       </c>
       <c r="D22">
-        <v>5.979746121177061</v>
+        <v>4.669695698620137</v>
       </c>
       <c r="E22">
-        <v>8.507958673202372</v>
+        <v>8.216818148332058</v>
       </c>
       <c r="F22">
-        <v>50.65414323074868</v>
+        <v>41.27075772653853</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.848636062064426</v>
+        <v>2.785562308014794</v>
       </c>
       <c r="I22">
-        <v>3.608043894206066</v>
+        <v>3.545007171693981</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>32.80195010716557</v>
+        <v>24.89591773348799</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>19.01515522689242</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.4381639527394</v>
       </c>
       <c r="N22">
-        <v>10.30046457845435</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.43779500547358</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.41905442651385</v>
+        <v>31.39670837528311</v>
       </c>
       <c r="C23">
-        <v>23.05890991878999</v>
+        <v>24.78415672191252</v>
       </c>
       <c r="D23">
-        <v>5.957322528078084</v>
+        <v>4.680934657430076</v>
       </c>
       <c r="E23">
-        <v>8.373583033465874</v>
+        <v>8.099332795830923</v>
       </c>
       <c r="F23">
-        <v>49.86655221723385</v>
+        <v>40.71020967832473</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.707131697775672</v>
+        <v>2.659936516172392</v>
       </c>
       <c r="I23">
-        <v>3.478569147414445</v>
+        <v>3.432937991584242</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>32.40368041858036</v>
+        <v>24.70626559505864</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.96340174623139</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.17742342974144</v>
       </c>
       <c r="N23">
-        <v>10.14064767237077</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.28089621194876</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.03499223596726</v>
+        <v>29.04298720788007</v>
       </c>
       <c r="C24">
-        <v>21.23965733624409</v>
+        <v>22.80818317194389</v>
       </c>
       <c r="D24">
-        <v>5.838997887442645</v>
+        <v>4.708578347832671</v>
       </c>
       <c r="E24">
-        <v>7.853723959410925</v>
+        <v>7.646207912796522</v>
       </c>
       <c r="F24">
-        <v>46.62334538341204</v>
+        <v>38.39855991675714</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.162083603598564</v>
+        <v>2.175296505925845</v>
       </c>
       <c r="I24">
-        <v>2.987387392665708</v>
+        <v>3.010160321242846</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>30.71184451088924</v>
+        <v>23.86578173846795</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.67037351706272</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.10633217212607</v>
       </c>
       <c r="N24">
-        <v>9.518946127976799</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.669825540351226</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.25472999238668</v>
+        <v>26.29046280760535</v>
       </c>
       <c r="C25">
-        <v>19.15126690619843</v>
+        <v>20.52870228040312</v>
       </c>
       <c r="D25">
-        <v>5.704187815245031</v>
+        <v>4.732627238010545</v>
       </c>
       <c r="E25">
-        <v>7.28271271943919</v>
+        <v>7.147945220484813</v>
       </c>
       <c r="F25">
-        <v>42.95018278136639</v>
+        <v>35.80752211275551</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.561645587580376</v>
+        <v>1.637504065747571</v>
       </c>
       <c r="I25">
-        <v>2.534939558221962</v>
+        <v>2.546106749445856</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>28.81829853035774</v>
+        <v>22.94543569226814</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.32392103984937</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.97416499353169</v>
       </c>
       <c r="N25">
-        <v>8.810049902400866</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.972601977114708</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
